--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,61 +509,61 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>577</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1268</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>952</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>827</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2521</t>
+          <t>1317</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>849</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,93 +733,93 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>2591</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,93 +829,93 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2081</t>
+          <t>609</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>1427</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>2093</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>797</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>2188</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>745</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,61 +1309,61 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>10-28 19:20</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1240512647.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>10-28 19:13</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1240510452.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>2947</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：第三季度净亏损9.47亿元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,61 +1405,61 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 18:50</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1240499841.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>850</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>10-28 18:44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1240497763.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1312</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>10-28 07:32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1240044866.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1239494633.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>10-26 07:32</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1238965724.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>10-25 23:53</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1238933441.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 15:08</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1238784407.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>10-25 14:12</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1238737272.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-25 13:33</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1238703580.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2422</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,61 +1693,61 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1238444163.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-24 22:06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1238403886.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-24 22:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1238402712.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>2423</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯：拟2亿元-4亿元回购股份</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-24 21:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1238392968.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-23 15:14</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1237865989.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-22 07:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1237794446.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-21 07:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1237344991.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-20 07:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1236885814.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>1308</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,24 +1949,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-19 17:36</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1236761891.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1512</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-19 16:55</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1236753926.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-19 14:40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1236705907.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-19 14:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1236695284.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-19 13:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1236625894.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-19 07:32</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1236437058.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,61 +2141,61 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-18 07:28</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1236039338.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1533</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
+          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-13 16:20</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1234926665.html</t>
+          <t>/news,601127,1235581148.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
+          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-13 07:28</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1234642319.html</t>
+          <t>/news,601127,1235509812.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
+          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-14 07:31</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1234209752.html</t>
+          <t>/news,601127,1235079209.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1846</t>
+          <t>1536</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
+          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-13 16:20</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1234145654.html</t>
+          <t>/news,601127,1234926665.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
+          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-13 07:28</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1234145657.html</t>
+          <t>/news,601127,1234642319.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
+          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-11 07:38</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1233834852.html</t>
+          <t>/news,601127,1234209752.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
+          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-10 17:20</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1233712900.html</t>
+          <t>/news,601127,1234145654.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
+          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1233704565.html</t>
+          <t>/news,601127,1234145657.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3205</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
+          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-11 07:38</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1233704587.html</t>
+          <t>/news,601127,1233834852.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
+          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-10 17:20</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1233354019.html</t>
+          <t>/news,601127,1233712900.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
+          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-09 20:54</t>
+          <t>10-10 16:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1233351317.html</t>
+          <t>/news,601127,1233704565.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>3206</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
+          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-09 20:31</t>
+          <t>10-10 16:49</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1233349164.html</t>
+          <t>/news,601127,1233704587.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
+          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-09 20:14</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1233347663.html</t>
+          <t>/news,601127,1233354019.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
+          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-09 17:30</t>
+          <t>10-09 20:54</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1233334371.html</t>
+          <t>/news,601127,1233351317.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
+          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-09 16:13</t>
+          <t>10-09 20:31</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1233328477.html</t>
+          <t>/news,601127,1233349164.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1505</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯：9月车辆销量2.89万辆 同比增39.92%</t>
+          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,61 +2653,61 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-09 15:53</t>
+          <t>10-09 20:14</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1233327040.html</t>
+          <t>/news,601127,1233347663.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>673</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还1.7亿元，居汽车整车板块第二</t>
+          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-09 15:07</t>
+          <t>10-09 17:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1233323514.html</t>
+          <t>/news,601127,1233334371.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>1217</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5264.39万元，两市排名第17（09-29）</t>
+          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-30 07:41</t>
+          <t>10-09 16:13</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1232534578.html</t>
+          <t>/news,601127,1233328477.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1505</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯：拟投资15亿元建设新能源汽车升级项目</t>
+          <t>赛力斯：9月车辆销量2.89万辆 同比增39.92%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-29 09:32</t>
+          <t>10-09 15:53</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1232120221.html</t>
+          <t>/news,601127,1233327040.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2390.18万元，融资余额26.89亿元（09-28）</t>
+          <t>赛力斯本周融资净偿还1.7亿元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-29 07:49</t>
+          <t>10-09 15:07</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1232087527.html</t>
+          <t>/news,601127,1233323514.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯拟15亿元投建新能源汽车升级项目</t>
+          <t>赛力斯：融资净偿还5264.39万元，两市排名第17（09-29）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-28 22:28</t>
+          <t>09-30 07:41</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1232055633.html</t>
+          <t>/news,601127,1232534578.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯：拟15亿元投建新能源汽车升级项目</t>
+          <t>赛力斯：拟投资15亿元建设新能源汽车升级项目</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-28 20:25</t>
+          <t>09-29 09:32</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1232013956.html</t>
+          <t>/news,601127,1232120221.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4508.69万元，两市排名第15（09-27）</t>
+          <t>赛力斯：融资净偿还2390.18万元，融资余额26.89亿元（09-28）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-28 07:30</t>
+          <t>09-29 07:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1231634357.html</t>
+          <t>/news,601127,1232087527.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>673</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1310.55万元，融资余额27.58亿元（09-26）</t>
+          <t>赛力斯拟15亿元投建新能源汽车升级项目</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-27 07:30</t>
+          <t>09-28 22:28</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1231244047.html</t>
+          <t>/news,601127,1232055633.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还6041.84万元，居汽车整车板块第三</t>
+          <t>赛力斯：拟15亿元投建新能源汽车升级项目</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-25 15:04</t>
+          <t>09-28 20:25</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1230727205.html</t>
+          <t>/news,601127,1232013956.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.52亿元，两市排名第二（09-23）</t>
+          <t>赛力斯：融资净偿还4508.69万元，两市排名第15（09-27）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-24 07:31</t>
+          <t>09-28 07:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1230638683.html</t>
+          <t>/news,601127,1231634357.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1758</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯：公司在动力电池方面与宁德时代强强合作 M3P新型电池减少对钴等贵重金属的依赖</t>
+          <t>赛力斯：融资净买入1310.55万元，融资余额27.58亿元（09-26）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-23 15:37</t>
+          <t>09-27 07:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1230532973.html</t>
+          <t>/news,601127,1231244047.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,93 +509,93 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>917</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>967</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>871</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2591</t>
+          <t>948</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,125 +829,125 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1427</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2093</t>
+          <t>1428</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>2117</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2188</t>
+          <t>798</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>2193</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>749</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>10-28 19:20</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1240512647.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2947</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,93 +1405,93 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>10-28 19:13</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1240510452.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>2948</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>赛力斯：第三季度净亏损9.47亿元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>10-28 18:50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1240499841.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>852</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>10-28 18:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1240497763.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 07:32</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1240044866.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1239494633.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>10-26 07:32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1238965724.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>10-25 23:53</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1238933441.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>10-25 15:08</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1238784407.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>10-25 14:12</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1238737272.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 13:33</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1238703580.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1238444163.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-24 22:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1238403886.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2423</t>
+          <t>1242</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,51 +1789,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-24 22:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1238402712.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>2424</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯：拟2亿元-4亿元回购股份</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-24 21:53</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1238392968.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-23 15:14</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1237865989.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-22 07:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1237794446.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-21 07:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1237344991.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-20 07:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1236885814.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>1309</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-19 17:36</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1236761891.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>1919</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-19 16:55</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1236753926.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-19 14:40</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1236705907.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>774</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-19 14:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1236695284.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>1515</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-19 13:02</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1236625894.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,93 +2141,93 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-19 07:32</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1236437058.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-18 07:28</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1236039338.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1235581148.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1235509812.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1536</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
+          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-13 16:20</t>
+          <t>10-14 07:31</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1234926665.html</t>
+          <t>/news,601127,1235079209.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
+          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-13 07:28</t>
+          <t>10-13 16:20</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1234642319.html</t>
+          <t>/news,601127,1234926665.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
+          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 07:28</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1234209752.html</t>
+          <t>/news,601127,1234642319.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
+          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1234145654.html</t>
+          <t>/news,601127,1234209752.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
+          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2402,24 +2402,24 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1234145657.html</t>
+          <t>/news,601127,1234145654.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
+          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,93 +2429,93 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-11 07:38</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1233834852.html</t>
+          <t>/news,601127,1234145657.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
+          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-10 17:20</t>
+          <t>10-11 07:38</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1233712900.html</t>
+          <t>/news,601127,1233834852.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
+          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-10 17:20</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1233704565.html</t>
+          <t>/news,601127,1233712900.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3206</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
+          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2530,24 +2530,24 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1233704587.html</t>
+          <t>/news,601127,1233704565.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>3215</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
+          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-10 16:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1233354019.html</t>
+          <t>/news,601127,1233704587.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1413</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
+          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-09 20:54</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1233351317.html</t>
+          <t>/news,601127,1233354019.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>1419</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
+          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-09 20:31</t>
+          <t>10-09 20:54</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1233349164.html</t>
+          <t>/news,601127,1233351317.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
+          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-09 20:14</t>
+          <t>10-09 20:31</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1233347663.html</t>
+          <t>/news,601127,1233349164.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
+          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-09 17:30</t>
+          <t>10-09 20:14</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1233334371.html</t>
+          <t>/news,601127,1233347663.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
+          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-09 16:13</t>
+          <t>10-09 17:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1233328477.html</t>
+          <t>/news,601127,1233334371.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1505</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯：9月车辆销量2.89万辆 同比增39.92%</t>
+          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,93 +2749,93 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-09 15:53</t>
+          <t>10-09 16:13</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1233327040.html</t>
+          <t>/news,601127,1233328477.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还1.7亿元，居汽车整车板块第二</t>
+          <t>赛力斯：9月车辆销量2.89万辆 同比增39.92%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-09 15:07</t>
+          <t>10-09 15:53</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1233323514.html</t>
+          <t>/news,601127,1233327040.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5264.39万元，两市排名第17（09-29）</t>
+          <t>赛力斯本周融资净偿还1.7亿元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-30 07:41</t>
+          <t>10-09 15:07</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1232534578.html</t>
+          <t>/news,601127,1233323514.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯：拟投资15亿元建设新能源汽车升级项目</t>
+          <t>赛力斯：融资净偿还5264.39万元，两市排名第17（09-29）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-29 09:32</t>
+          <t>09-30 07:41</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1232120221.html</t>
+          <t>/news,601127,1232534578.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2390.18万元，融资余额26.89亿元（09-28）</t>
+          <t>赛力斯：拟投资15亿元建设新能源汽车升级项目</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-29 07:49</t>
+          <t>09-29 09:32</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1232087527.html</t>
+          <t>/news,601127,1232120221.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯拟15亿元投建新能源汽车升级项目</t>
+          <t>赛力斯：融资净偿还2390.18万元，融资余额26.89亿元（09-28）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-28 22:28</t>
+          <t>09-29 07:49</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1232055633.html</t>
+          <t>/news,601127,1232087527.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯：拟15亿元投建新能源汽车升级项目</t>
+          <t>赛力斯拟15亿元投建新能源汽车升级项目</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-28 20:25</t>
+          <t>09-28 22:28</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1232013956.html</t>
+          <t>/news,601127,1232055633.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4508.69万元，两市排名第15（09-27）</t>
+          <t>赛力斯：拟15亿元投建新能源汽车升级项目</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-28 07:30</t>
+          <t>09-28 20:25</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1231634357.html</t>
+          <t>/news,601127,1232013956.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1310.55万元，融资余额27.58亿元（09-26）</t>
+          <t>赛力斯：融资净偿还4508.69万元，两市排名第15（09-27）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-27 07:30</t>
+          <t>09-28 07:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1231244047.html</t>
+          <t>/news,601127,1231634357.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,49 +457,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,61 +541,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>1714</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,61 +605,61 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>871</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>1409</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>977</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2773</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,51 +861,51 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,103 +915,103 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1428</t>
+          <t>628</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2117</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>2181</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2193</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>828</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>2202</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1239</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>1123</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>605</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2948</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,61 +1437,61 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>10-28 19:20</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1240512647.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>10-28 19:13</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1240510452.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>赛力斯：第三季度净亏损9.47亿元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,44 +1501,44 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>10-28 18:50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1240499841.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>856</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 18:44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1240497763.html</t>
         </is>
       </c>
     </row>
@@ -1550,12 +1550,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>10-28 07:32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1240044866.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1239494633.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>10-26 07:32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1238965724.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>10-25 23:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1238933441.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>10-25 15:08</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1238784407.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 14:12</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1238737272.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>10-25 13:33</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1238703580.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1238444163.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2424</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,61 +1821,61 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-24 22:06</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1238403886.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>1255</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-24 22:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1238402712.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯：拟2亿元-4亿元回购股份</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-24 21:53</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1238392968.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,39 +1907,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-23 15:14</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1237865989.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-22 07:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1237794446.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-21 07:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1237344991.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1919</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-20 07:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1236885814.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>1317</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-19 17:36</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1236761891.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>1929</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-19 16:55</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1236753926.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1515</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-19 14:40</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1236705907.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>781</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-19 14:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1236695284.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-19 13:02</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1236625894.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-19 07:32</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1236437058.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-18 07:28</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1236039338.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1235581148.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
+          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-13 16:20</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1234926665.html</t>
+          <t>/news,601127,1235509812.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
+          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-13 07:28</t>
+          <t>10-14 07:31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1234642319.html</t>
+          <t>/news,601127,1235079209.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
+          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 16:20</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1234209752.html</t>
+          <t>/news,601127,1234926665.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
+          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-13 07:28</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1234145654.html</t>
+          <t>/news,601127,1234642319.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
+          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1234145657.html</t>
+          <t>/news,601127,1234209752.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>1869</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
+          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,51 +2461,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-11 07:38</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1233834852.html</t>
+          <t>/news,601127,1234145654.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>1206</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
+          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-10 17:20</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1233712900.html</t>
+          <t>/news,601127,1234145657.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
+          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-11 07:38</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1233704565.html</t>
+          <t>/news,601127,1233834852.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3215</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
+          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-10 17:20</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1233704587.html</t>
+          <t>/news,601127,1233712900.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
+          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-10 16:49</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1233354019.html</t>
+          <t>/news,601127,1233704565.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
+          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-09 20:54</t>
+          <t>10-10 16:49</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1233351317.html</t>
+          <t>/news,601127,1233704587.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
+          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-09 20:31</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1233349164.html</t>
+          <t>/news,601127,1233354019.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
+          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-09 20:14</t>
+          <t>10-09 20:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1233347663.html</t>
+          <t>/news,601127,1233351317.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
+          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-09 17:30</t>
+          <t>10-09 20:31</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1233334371.html</t>
+          <t>/news,601127,1233349164.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>1170</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
+          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-09 16:13</t>
+          <t>10-09 20:14</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1233328477.html</t>
+          <t>/news,601127,1233347663.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯：9月车辆销量2.89万辆 同比增39.92%</t>
+          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,61 +2781,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-09 15:53</t>
+          <t>10-09 17:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1233327040.html</t>
+          <t>/news,601127,1233334371.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还1.7亿元，居汽车整车板块第二</t>
+          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-09 15:07</t>
+          <t>10-09 16:13</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1233323514.html</t>
+          <t>/news,601127,1233328477.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5264.39万元，两市排名第17（09-29）</t>
+          <t>赛力斯：9月车辆销量2.89万辆 同比增39.92%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-30 07:41</t>
+          <t>10-09 15:53</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1232534578.html</t>
+          <t>/news,601127,1233327040.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯：拟投资15亿元建设新能源汽车升级项目</t>
+          <t>赛力斯本周融资净偿还1.7亿元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-29 09:32</t>
+          <t>10-09 15:07</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1232120221.html</t>
+          <t>/news,601127,1233323514.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2390.18万元，融资余额26.89亿元（09-28）</t>
+          <t>赛力斯：融资净偿还5264.39万元，两市排名第17（09-29）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-29 07:49</t>
+          <t>09-30 07:41</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1232087527.html</t>
+          <t>/news,601127,1232534578.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>792</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯拟15亿元投建新能源汽车升级项目</t>
+          <t>赛力斯：拟投资15亿元建设新能源汽车升级项目</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-28 22:28</t>
+          <t>09-29 09:32</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1232055633.html</t>
+          <t>/news,601127,1232120221.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯：拟15亿元投建新能源汽车升级项目</t>
+          <t>赛力斯：融资净偿还2390.18万元，融资余额26.89亿元（09-28）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-28 20:25</t>
+          <t>09-29 07:49</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1232013956.html</t>
+          <t>/news,601127,1232087527.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4508.69万元，两市排名第15（09-27）</t>
+          <t>赛力斯拟15亿元投建新能源汽车升级项目</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-28 07:30</t>
+          <t>09-28 22:28</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1231634357.html</t>
+          <t>/news,601127,1232055633.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,81 +457,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1714</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,93 +605,93 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>610</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>1430</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>977</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2773</t>
+          <t>981</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>2988</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,125 +925,125 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2181</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>2192</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2202</t>
+          <t>839</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>2214</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>1239</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>605</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>10-28 19:20</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1240512647.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2955</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,93 +1501,93 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>10-28 19:13</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1240510452.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>赛力斯：第三季度净亏损9.47亿元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>10-28 18:50</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1240499841.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>857</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>10-28 18:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1240497763.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 07:32</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1240044866.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1239494633.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>10-26 07:32</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1238965724.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>10-25 23:53</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1238933441.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>10-25 15:08</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1238784407.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>10-25 14:12</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1238737272.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 13:33</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1238703580.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1238444163.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-24 22:06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1238403886.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>1255</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,51 +1885,51 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-24 22:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1238402712.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯：拟2亿元-4亿元回购股份</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-24 21:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1238392968.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-23 15:14</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1237865989.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-22 07:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1237794446.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-21 07:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1237344991.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-20 07:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1236885814.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>1317</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-19 17:36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1236761891.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-19 16:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1236753926.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-19 14:40</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1236705907.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>783</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-19 14:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1236695284.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-19 13:02</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1236625894.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,93 +2237,93 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-19 07:32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1236437058.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-18 07:28</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1236039338.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1235581148.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1235509812.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
+          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-13 16:20</t>
+          <t>10-14 07:31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1234926665.html</t>
+          <t>/news,601127,1235079209.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
+          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-13 07:28</t>
+          <t>10-13 16:20</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1234642319.html</t>
+          <t>/news,601127,1234926665.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
+          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 07:28</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1234209752.html</t>
+          <t>/news,601127,1234642319.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1869</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
+          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1234145654.html</t>
+          <t>/news,601127,1234209752.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>1872</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
+          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2498,24 +2498,24 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1234145657.html</t>
+          <t>/news,601127,1234145654.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>1206</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
+          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,93 +2525,93 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-11 07:38</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1233834852.html</t>
+          <t>/news,601127,1234145657.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
+          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-10 17:20</t>
+          <t>10-11 07:38</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1233712900.html</t>
+          <t>/news,601127,1233834852.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
+          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-10 17:20</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1233704565.html</t>
+          <t>/news,601127,1233712900.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3232</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
+          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2626,24 +2626,24 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1233704587.html</t>
+          <t>/news,601127,1233704565.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
+          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-10 16:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1233354019.html</t>
+          <t>/news,601127,1233704587.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1426</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
+          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-09 20:54</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1233351317.html</t>
+          <t>/news,601127,1233354019.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>1429</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
+          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-09 20:31</t>
+          <t>10-09 20:54</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1233349164.html</t>
+          <t>/news,601127,1233351317.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
+          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-09 20:14</t>
+          <t>10-09 20:31</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1233347663.html</t>
+          <t>/news,601127,1233349164.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>1170</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
+          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-09 17:30</t>
+          <t>10-09 20:14</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1233334371.html</t>
+          <t>/news,601127,1233347663.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
+          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-09 16:13</t>
+          <t>10-09 17:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1233328477.html</t>
+          <t>/news,601127,1233334371.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯：9月车辆销量2.89万辆 同比增39.92%</t>
+          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,93 +2845,93 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-09 15:53</t>
+          <t>10-09 16:13</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1233327040.html</t>
+          <t>/news,601127,1233328477.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还1.7亿元，居汽车整车板块第二</t>
+          <t>赛力斯：9月车辆销量2.89万辆 同比增39.92%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-09 15:07</t>
+          <t>10-09 15:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1233323514.html</t>
+          <t>/news,601127,1233327040.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5264.39万元，两市排名第17（09-29）</t>
+          <t>赛力斯本周融资净偿还1.7亿元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-30 07:41</t>
+          <t>10-09 15:07</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1232534578.html</t>
+          <t>/news,601127,1233323514.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯：拟投资15亿元建设新能源汽车升级项目</t>
+          <t>赛力斯：融资净偿还5264.39万元，两市排名第17（09-29）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-29 09:32</t>
+          <t>09-30 07:41</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1232120221.html</t>
+          <t>/news,601127,1232534578.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>792</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2390.18万元，融资余额26.89亿元（09-28）</t>
+          <t>赛力斯：拟投资15亿元建设新能源汽车升级项目</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-29 07:49</t>
+          <t>09-29 09:32</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1232087527.html</t>
+          <t>/news,601127,1232120221.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯拟15亿元投建新能源汽车升级项目</t>
+          <t>赛力斯：融资净偿还2390.18万元，融资余额26.89亿元（09-28）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-28 22:28</t>
+          <t>09-29 07:49</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1232055633.html</t>
+          <t>/news,601127,1232087527.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>1881</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -745,7 +745,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1430</t>
+          <t>1434</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -841,7 +841,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>983</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2988</t>
+          <t>2991</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -937,7 +937,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1129,7 +1129,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>840</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2214</t>
+          <t>2217</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1193,7 +1193,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>1129</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>759</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1321,7 +1321,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1481,7 +1481,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,93 +477,93 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1881</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,93 +637,93 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>2127</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1434</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>1448</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2991</t>
+          <t>990</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>3010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,125 +957,125 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>631</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2192</t>
+          <t>1455</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2217</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>2220</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>1243</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1129</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>1131</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>760</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>10-28 19:20</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1240512647.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2955</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,93 +1533,93 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>10-28 19:13</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1240510452.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>2956</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>赛力斯：第三季度净亏损9.47亿元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>10-28 18:50</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1240499841.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>858</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>10-28 18:44</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1240497763.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 07:32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1240044866.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1239494633.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1413</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>10-26 07:32</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1238965724.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1429</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>10-25 23:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1238933441.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>10-25 15:08</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1238784407.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>10-25 14:12</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1238737272.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 13:33</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1238703580.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1238444163.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-24 22:06</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1238403886.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>1255</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-24 22:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1238402712.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯：拟2亿元-4亿元回购股份</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-24 21:53</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1238392968.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-23 15:14</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1237865989.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-22 07:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1237794446.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-21 07:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1237344991.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-20 07:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1236885814.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1934</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-19 17:36</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1236761891.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-19 16:55</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1236753926.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-19 14:40</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1236705907.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>783</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-19 14:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1236695284.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>1524</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-19 13:02</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1236625894.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,93 +2269,93 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-19 07:32</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1236437058.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-18 07:28</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1236039338.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1235581148.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1235509812.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
+          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-13 16:20</t>
+          <t>10-14 07:31</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1234926665.html</t>
+          <t>/news,601127,1235079209.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
+          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-13 07:28</t>
+          <t>10-13 16:20</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1234642319.html</t>
+          <t>/news,601127,1234926665.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
+          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 07:28</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1234209752.html</t>
+          <t>/news,601127,1234642319.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1872</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
+          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1234145654.html</t>
+          <t>/news,601127,1234209752.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>1877</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
+          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2530,24 +2530,24 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1234145657.html</t>
+          <t>/news,601127,1234145654.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>1212</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
+          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,93 +2557,93 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-11 07:38</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1233834852.html</t>
+          <t>/news,601127,1234145657.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
+          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-10 17:20</t>
+          <t>10-11 07:38</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1233712900.html</t>
+          <t>/news,601127,1233834852.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
+          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-10 17:20</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1233704565.html</t>
+          <t>/news,601127,1233712900.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3235</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
+          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2658,24 +2658,24 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1233704587.html</t>
+          <t>/news,601127,1233704565.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
+          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-10 16:49</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1233354019.html</t>
+          <t>/news,601127,1233704587.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
+          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-09 20:54</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1233351317.html</t>
+          <t>/news,601127,1233354019.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>1429</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
+          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-09 20:31</t>
+          <t>10-09 20:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1233349164.html</t>
+          <t>/news,601127,1233351317.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
+          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-09 20:14</t>
+          <t>10-09 20:31</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1233347663.html</t>
+          <t>/news,601127,1233349164.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>1171</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
+          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-09 17:30</t>
+          <t>10-09 20:14</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1233334371.html</t>
+          <t>/news,601127,1233347663.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
+          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-09 16:13</t>
+          <t>10-09 17:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1233328477.html</t>
+          <t>/news,601127,1233334371.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯：9月车辆销量2.89万辆 同比增39.92%</t>
+          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,93 +2877,93 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-09 15:53</t>
+          <t>10-09 16:13</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1233327040.html</t>
+          <t>/news,601127,1233328477.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还1.7亿元，居汽车整车板块第二</t>
+          <t>赛力斯：9月车辆销量2.89万辆 同比增39.92%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-09 15:07</t>
+          <t>10-09 15:53</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1233323514.html</t>
+          <t>/news,601127,1233327040.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5264.39万元，两市排名第17（09-29）</t>
+          <t>赛力斯本周融资净偿还1.7亿元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-30 07:41</t>
+          <t>10-09 15:07</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1232534578.html</t>
+          <t>/news,601127,1233323514.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯：拟投资15亿元建设新能源汽车升级项目</t>
+          <t>赛力斯：融资净偿还5264.39万元，两市排名第17（09-29）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-29 09:32</t>
+          <t>09-30 07:41</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1232120221.html</t>
+          <t>/news,601127,1232534578.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>793</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2390.18万元，融资余额26.89亿元（09-28）</t>
+          <t>赛力斯：拟投资15亿元建设新能源汽车升级项目</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-29 07:49</t>
+          <t>09-29 09:32</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1232087527.html</t>
+          <t>/news,601127,1232120221.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,93 +509,93 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>783</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2127</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,93 +669,93 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>2197</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>619</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1459</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1448</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>1462</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3010</t>
+          <t>998</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>3018</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,125 +989,125 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1455</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>1456</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2220</t>
+          <t>847</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1243</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>1243</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>10-28 19:20</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1240512647.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2956</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,93 +1565,93 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>10-28 19:13</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1240510452.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>2956</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>赛力斯：第三季度净亏损9.47亿元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>10-28 18:50</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1240499841.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>10-28 18:44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1240497763.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 07:32</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1240044866.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1239494633.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>10-26 07:32</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1238965724.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>10-25 23:53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1238933441.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>10-25 15:08</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1238784407.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>10-25 14:12</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1238737272.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 13:33</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1238703580.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1238444163.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-24 22:06</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1238403886.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,51 +1949,51 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-24 22:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1238402712.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>2437</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯：拟2亿元-4亿元回购股份</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-24 21:53</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1238392968.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-23 15:14</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1237865989.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-22 07:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1237794446.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-21 07:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1237344991.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-20 07:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1236885814.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-19 17:36</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1236761891.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-19 16:55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1236753926.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-19 14:40</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1236705907.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>783</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-19 14:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1236695284.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>1532</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-19 13:02</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1236625894.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,93 +2301,93 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-19 07:32</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1236437058.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-18 07:28</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1236039338.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1235581148.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1235509812.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
+          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-13 16:20</t>
+          <t>10-14 07:31</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1234926665.html</t>
+          <t>/news,601127,1235079209.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>1549</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
+          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-13 07:28</t>
+          <t>10-13 16:20</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1234642319.html</t>
+          <t>/news,601127,1234926665.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
+          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 07:28</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1234209752.html</t>
+          <t>/news,601127,1234642319.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1877</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
+          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1234145654.html</t>
+          <t>/news,601127,1234209752.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>1879</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
+          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2562,24 +2562,24 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1234145657.html</t>
+          <t>/news,601127,1234145654.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
+          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,93 +2589,93 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-11 07:38</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1233834852.html</t>
+          <t>/news,601127,1234145657.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
+          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-10 17:20</t>
+          <t>10-11 07:38</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1233712900.html</t>
+          <t>/news,601127,1233834852.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
+          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-10 17:20</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1233704565.html</t>
+          <t>/news,601127,1233712900.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3235</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
+          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2690,24 +2690,24 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1233704587.html</t>
+          <t>/news,601127,1233704565.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>3239</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
+          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-10 16:49</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1233354019.html</t>
+          <t>/news,601127,1233704587.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
+          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-09 20:54</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1233351317.html</t>
+          <t>/news,601127,1233354019.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>1431</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
+          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-09 20:31</t>
+          <t>10-09 20:54</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1233349164.html</t>
+          <t>/news,601127,1233351317.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1171</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
+          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-09 20:14</t>
+          <t>10-09 20:31</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1233347663.html</t>
+          <t>/news,601127,1233349164.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>1173</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
+          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-09 17:30</t>
+          <t>10-09 20:14</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1233334371.html</t>
+          <t>/news,601127,1233347663.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
+          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-09 16:13</t>
+          <t>10-09 17:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1233328477.html</t>
+          <t>/news,601127,1233334371.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯：9月车辆销量2.89万辆 同比增39.92%</t>
+          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,93 +2909,93 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-09 15:53</t>
+          <t>10-09 16:13</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1233327040.html</t>
+          <t>/news,601127,1233328477.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还1.7亿元，居汽车整车板块第二</t>
+          <t>赛力斯：9月车辆销量2.89万辆 同比增39.92%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-09 15:07</t>
+          <t>10-09 15:53</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1233323514.html</t>
+          <t>/news,601127,1233327040.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5264.39万元，两市排名第17（09-29）</t>
+          <t>赛力斯本周融资净偿还1.7亿元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-30 07:41</t>
+          <t>10-09 15:07</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1232534578.html</t>
+          <t>/news,601127,1233323514.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯：拟投资15亿元建设新能源汽车升级项目</t>
+          <t>赛力斯：融资净偿还5264.39万元，两市排名第17（09-29）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-29 09:32</t>
+          <t>09-30 07:41</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1232120221.html</t>
+          <t>/news,601127,1232534578.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,93 +541,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2197</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,93 +701,93 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>2243</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1459</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>1480</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1462</t>
+          <t>1183</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>1474</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3018</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>3021</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,125 +1021,125 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2210</t>
+          <t>1456</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>2217</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2221</t>
+          <t>847</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1243</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>1243</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>10-28 19:20</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1240512647.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2956</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,93 +1597,93 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>10-28 19:13</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1240510452.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>2957</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>赛力斯：第三季度净亏损9.47亿元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>10-28 18:50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1240499841.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>10-28 18:44</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1240497763.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 07:32</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1240044866.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1239494633.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>10-26 07:32</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1238965724.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1460</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>10-25 23:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1238933441.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>10-25 15:08</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1238784407.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>10-25 14:12</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1238737272.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 13:33</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1238703580.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1238444163.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-24 22:06</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1238403886.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2437</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-24 22:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1238402712.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>2437</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯：拟2亿元-4亿元回购股份</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-24 21:53</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1238392968.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-23 15:14</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1237865989.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-22 07:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1237794446.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-21 07:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1237344991.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-20 07:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1236885814.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-19 17:36</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1236761891.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-19 16:55</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1236753926.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>542</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-19 14:40</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1236705907.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1532</t>
+          <t>785</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-19 14:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1236695284.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>1534</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-19 13:02</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1236625894.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,93 +2333,93 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-19 07:32</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1236437058.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-18 07:28</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1236039338.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1235581148.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1235509812.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
+          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-13 16:20</t>
+          <t>10-14 07:31</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1234926665.html</t>
+          <t>/news,601127,1235079209.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
+          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-13 07:28</t>
+          <t>10-13 16:20</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1234642319.html</t>
+          <t>/news,601127,1234926665.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
+          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 07:28</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1234209752.html</t>
+          <t>/news,601127,1234642319.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
+          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1234145654.html</t>
+          <t>/news,601127,1234209752.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
+          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2594,24 +2594,24 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1234145657.html</t>
+          <t>/news,601127,1234145654.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>1217</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
+          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,93 +2621,93 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-11 07:38</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1233834852.html</t>
+          <t>/news,601127,1234145657.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
+          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-10 17:20</t>
+          <t>10-11 07:38</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1233712900.html</t>
+          <t>/news,601127,1233834852.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
+          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-10 17:20</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1233704565.html</t>
+          <t>/news,601127,1233712900.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3239</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
+          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2722,24 +2722,24 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1233704587.html</t>
+          <t>/news,601127,1233704565.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>3241</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
+          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-10 16:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1233354019.html</t>
+          <t>/news,601127,1233704587.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1431</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
+          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-09 20:54</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1233351317.html</t>
+          <t>/news,601127,1233354019.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
+          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-09 20:31</t>
+          <t>10-09 20:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1233349164.html</t>
+          <t>/news,601127,1233351317.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>661</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
+          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-09 20:14</t>
+          <t>10-09 20:31</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1233347663.html</t>
+          <t>/news,601127,1233349164.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>1173</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
+          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-09 17:30</t>
+          <t>10-09 20:14</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1233334371.html</t>
+          <t>/news,601127,1233347663.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
+          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-09 16:13</t>
+          <t>10-09 17:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1233328477.html</t>
+          <t>/news,601127,1233334371.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>1225</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯：9月车辆销量2.89万辆 同比增39.92%</t>
+          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,76 +2941,76 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-09 15:53</t>
+          <t>10-09 16:13</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1233327040.html</t>
+          <t>/news,601127,1233328477.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>1515</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还1.7亿元，居汽车整车板块第二</t>
+          <t>赛力斯：9月车辆销量2.89万辆 同比增39.92%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-09 15:07</t>
+          <t>10-09 15:53</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1233323514.html</t>
+          <t>/news,601127,1233327040.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5264.39万元，两市排名第17（09-29）</t>
+          <t>赛力斯本周融资净偿还1.7亿元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-30 07:41</t>
+          <t>10-09 15:07</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1232534578.html</t>
+          <t>/news,601127,1233323514.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,51 +573,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,61 +637,61 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2243</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,61 +733,61 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>2282</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,61 +797,61 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1480</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>1505</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1491</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3021</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>1121</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,51 +1053,51 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,103 +1107,103 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2217</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>1460</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>2224</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2223</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1243</t>
+          <t>853</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>2224</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>1246</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>764</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2957</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,61 +1629,61 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>10-28 19:20</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1240512647.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>572</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>10-28 19:13</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1240510452.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>2961</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>赛力斯：第三季度净亏损9.47亿元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,61 +1693,61 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>10-28 18:50</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1240499841.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>860</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 18:44</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1240497763.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>10-28 07:32</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1240044866.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1460</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1239494633.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>10-26 07:32</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1238965724.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1475</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>10-25 23:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1238933441.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>1171</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>10-25 15:08</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1238784407.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 14:12</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1238737272.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>10-25 13:33</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1238703580.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1238444163.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2437</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-24 22:06</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1238403886.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-24 22:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1238402712.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯：拟2亿元-4亿元回购股份</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-24 21:53</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1238392968.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-23 15:14</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1237865989.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-22 07:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1237794446.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-21 07:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1237344991.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-20 07:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1236885814.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>1329</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-19 17:36</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1236761891.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-19 16:55</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1236753926.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-19 14:40</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1236705907.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-19 14:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1236695284.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1538</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-19 13:02</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1236625894.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-19 07:32</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1236437058.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-18 07:28</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1236039338.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1235581148.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
+          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-13 16:20</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1234926665.html</t>
+          <t>/news,601127,1235509812.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
+          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-13 07:28</t>
+          <t>10-14 07:31</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1234642319.html</t>
+          <t>/news,601127,1235079209.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>1553</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
+          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 16:20</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1234209752.html</t>
+          <t>/news,601127,1234926665.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1880</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
+          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-13 07:28</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1234145654.html</t>
+          <t>/news,601127,1234642319.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
+          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1234145657.html</t>
+          <t>/news,601127,1234209752.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>1885</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
+          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-11 07:38</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1233834852.html</t>
+          <t>/news,601127,1234145654.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
+          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-10 17:20</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1233712900.html</t>
+          <t>/news,601127,1234145657.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
+          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,61 +2717,61 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-11 07:38</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1233704565.html</t>
+          <t>/news,601127,1233834852.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3241</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
+          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-10 17:20</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1233704587.html</t>
+          <t>/news,601127,1233712900.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
+          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-10 16:49</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1233354019.html</t>
+          <t>/news,601127,1233704565.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>3246</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
+          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-09 20:54</t>
+          <t>10-10 16:49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1233351317.html</t>
+          <t>/news,601127,1233704587.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
+          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-09 20:31</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1233349164.html</t>
+          <t>/news,601127,1233354019.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
+          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-09 20:14</t>
+          <t>10-09 20:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1233347663.html</t>
+          <t>/news,601127,1233351317.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>666</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
+          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-09 17:30</t>
+          <t>10-09 20:31</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1233334371.html</t>
+          <t>/news,601127,1233349164.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1225</t>
+          <t>1183</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
+          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-09 16:13</t>
+          <t>10-09 20:14</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1233328477.html</t>
+          <t>/news,601127,1233347663.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1515</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯：9月车辆销量2.89万辆 同比增39.92%</t>
+          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-09 15:53</t>
+          <t>10-09 17:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1233327040.html</t>
+          <t>/news,601127,1233334371.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还1.7亿元，居汽车整车板块第二</t>
+          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-09 15:07</t>
+          <t>10-09 16:13</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1233323514.html</t>
+          <t>/news,601127,1233328477.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,93 +637,93 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2282</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,93 +797,93 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>2336</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1505</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1194</t>
+          <t>1524</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>3024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,125 +1117,125 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>641</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1460</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2224</t>
+          <t>1461</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>2234</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>【图解季报】赛力斯：2022年前三</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2224</t>
+          <t>860</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1246</t>
+          <t>2228</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>1246</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>1141</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>766</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>10-28 19:20</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1240512647.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2961</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,93 +1693,93 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>10-28 19:13</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1240510452.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>2961</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>赛力斯：第三季度净亏损9.47亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>10-28 18:50</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1240499841.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>860</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>10-28 18:44</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1240497763.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 07:32</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1240044866.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1239494633.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>10-26 07:32</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1238965724.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1171</t>
+          <t>1493</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>10-25 23:53</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1238933441.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>10-25 15:08</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1238784407.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>10-25 14:12</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1238737272.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 13:33</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1238703580.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1238444163.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-24 22:06</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1238403886.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,51 +2077,51 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-24 22:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1238402712.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>2446</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯：拟2亿元-4亿元回购股份</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-24 21:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1238392968.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-23 15:14</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1237865989.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-22 07:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1237794446.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-21 07:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1237344991.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1329</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-20 07:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1236885814.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-19 17:36</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1236761891.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-19 16:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1236753926.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>544</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-19 14:40</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1236705907.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1538</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-19 14:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1236695284.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>1539</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-19 13:02</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1236625894.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,93 +2429,93 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-19 07:32</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1236437058.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-18 07:28</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1236039338.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1235581148.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1235509812.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1553</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
+          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-13 16:20</t>
+          <t>10-14 07:31</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1234926665.html</t>
+          <t>/news,601127,1235079209.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>1555</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
+          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-13 07:28</t>
+          <t>10-13 16:20</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1234642319.html</t>
+          <t>/news,601127,1234926665.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
+          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 07:28</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1234209752.html</t>
+          <t>/news,601127,1234642319.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1885</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
+          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1234145654.html</t>
+          <t>/news,601127,1234209752.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
+          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2690,24 +2690,24 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1234145657.html</t>
+          <t>/news,601127,1234145654.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
+          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,93 +2717,93 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-11 07:38</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1233834852.html</t>
+          <t>/news,601127,1234145657.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
+          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-10 17:20</t>
+          <t>10-11 07:38</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1233712900.html</t>
+          <t>/news,601127,1233834852.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
+          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-10 17:20</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1233704565.html</t>
+          <t>/news,601127,1233712900.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3246</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
+          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2818,24 +2818,24 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1233704587.html</t>
+          <t>/news,601127,1233704565.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>3247</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
+          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-10 16:49</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1233354019.html</t>
+          <t>/news,601127,1233704587.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
+          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-09 20:54</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1233351317.html</t>
+          <t>/news,601127,1233354019.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
+          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-09 20:31</t>
+          <t>10-09 20:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1233349164.html</t>
+          <t>/news,601127,1233351317.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>666</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
+          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-09 20:14</t>
+          <t>10-09 20:31</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1233347663.html</t>
+          <t>/news,601127,1233349164.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>1184</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
+          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-09 17:30</t>
+          <t>10-09 20:14</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1233334371.html</t>
+          <t>/news,601127,1233347663.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>691</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量10142辆 同比增长598%</t>
+          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-09 16:13</t>
+          <t>10-09 17:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1233328477.html</t>
+          <t>/news,601127,1233334371.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,61 +733,61 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2336</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,61 +829,61 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>2586</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,61 +893,61 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>1554</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>1516</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3024</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>1145</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>3030</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,103 +1203,103 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1461</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2234</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>1464</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>2245</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2228</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1246</t>
+          <t>865</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>2233</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>1249</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>768</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2961</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,61 +1725,61 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>10-28 19:20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1240512647.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>10-28 19:13</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1240510452.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>2961</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>赛力斯：第三季度净亏损9.47亿元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>10-28 18:50</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1240499841.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>860</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 18:44</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1240497763.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>10-28 07:32</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1240044866.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1493</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1239494633.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>10-26 07:32</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1238965724.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>10-25 23:53</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1238933441.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>10-25 15:08</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1238784407.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 14:12</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1238737272.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>10-25 13:33</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1238703580.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1238444163.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2446</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,61 +2109,61 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-24 22:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1238403886.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-24 22:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1238402712.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯：拟2亿元-4亿元回购股份</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-24 21:53</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1238392968.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-23 15:14</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1237865989.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-22 07:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1237794446.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-21 07:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1237344991.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-20 07:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1236885814.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-19 17:36</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1236761891.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-19 16:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1236753926.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1539</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-19 14:40</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1236705907.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-19 14:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1236695284.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1542</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-19 13:02</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1236625894.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-19 07:32</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1236437058.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-18 07:28</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1236039338.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1235581148.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1555</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
+          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-13 16:20</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1234926665.html</t>
+          <t>/news,601127,1235509812.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
+          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-13 07:28</t>
+          <t>10-14 07:31</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1234642319.html</t>
+          <t>/news,601127,1235079209.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
+          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 16:20</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1234209752.html</t>
+          <t>/news,601127,1234926665.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
+          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-13 07:28</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1234145654.html</t>
+          <t>/news,601127,1234642319.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
+          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1234145657.html</t>
+          <t>/news,601127,1234209752.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>1891</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
+          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-11 07:38</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1233834852.html</t>
+          <t>/news,601127,1234145654.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
+          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-10 17:20</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1233712900.html</t>
+          <t>/news,601127,1234145657.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
+          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,61 +2813,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-11 07:38</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1233704565.html</t>
+          <t>/news,601127,1233834852.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3247</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
+          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-10 17:20</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1233704587.html</t>
+          <t>/news,601127,1233712900.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
+          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-10 16:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1233354019.html</t>
+          <t>/news,601127,1233704565.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1444</t>
+          <t>3249</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
+          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-09 20:54</t>
+          <t>10-10 16:49</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1233351317.html</t>
+          <t>/news,601127,1233704587.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
+          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-09 20:31</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1233349164.html</t>
+          <t>/news,601127,1233354019.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1184</t>
+          <t>1448</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯汽车9月销量再度破万 同比大增近6倍</t>
+          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-09 20:14</t>
+          <t>10-09 20:54</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1233347663.html</t>
+          <t>/news,601127,1233351317.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯：9月新能源汽车销量突破1.7万 同比增长超过300%</t>
+          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-09 17:30</t>
+          <t>10-09 20:31</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1233334371.html</t>
+          <t>/news,601127,1233349164.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
+          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-17 08:00</t>
+          <t>11-18 07:35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1247669522.html</t>
+          <t>/news,601127,1248150575.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>5407</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
+          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-16 07:32</t>
+          <t>11-17 21:42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1247172531.html</t>
+          <t>/news,601127,1248096262.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,51 +605,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,51 +733,51 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,61 +797,61 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>791</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2586</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,61 +893,61 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>2604</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,61 +957,61 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>642</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1516</t>
+          <t>1566</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>1383</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>1527</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>1147</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,103 +1267,103 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1464</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2245</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1465</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>2254</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2233</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>868</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>2235</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>1251</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>768</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>619</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2961</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>10-28 19:20</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1240512647.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>10-28 19:13</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1240510452.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>2963</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>赛力斯：第三季度净亏损9.47亿元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,61 +1853,61 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>10-28 18:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1240499841.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>861</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 18:44</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1240497763.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>10-28 07:32</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1240044866.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1239494633.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>10-26 07:32</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1238965724.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1532</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>10-25 23:53</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1238933441.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>1183</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>10-25 15:08</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1238784407.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 14:12</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1238737272.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>10-25 13:33</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1238703580.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1238444163.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>1181</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-24 22:06</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1238403886.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-24 22:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1238402712.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>2452</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯：拟2亿元-4亿元回购股份</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-24 21:53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1238392968.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-23 15:14</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1237865989.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-22 07:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1237794446.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1332</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-21 07:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1237344991.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-20 07:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1236885814.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>1335</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-19 17:36</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1236761891.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-19 16:55</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1236753926.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-19 14:40</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1236705907.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-19 14:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1236695284.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>1543</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-19 13:02</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1236625894.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-19 07:32</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1236437058.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,61 +2589,61 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-18 07:28</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1236039338.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1235581148.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
+          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-13 16:20</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1234926665.html</t>
+          <t>/news,601127,1235509812.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
+          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-13 07:28</t>
+          <t>10-14 07:31</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1234642319.html</t>
+          <t>/news,601127,1235079209.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>1558</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
+          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 16:20</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1234209752.html</t>
+          <t>/news,601127,1234926665.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
+          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-13 07:28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1234145654.html</t>
+          <t>/news,601127,1234642319.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
+          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1234145657.html</t>
+          <t>/news,601127,1234209752.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
+          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,51 +2813,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-11 07:38</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1233834852.html</t>
+          <t>/news,601127,1234145654.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>1229</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
+          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-10 17:20</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1233712900.html</t>
+          <t>/news,601127,1234145657.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
+          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-11 07:38</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1233704565.html</t>
+          <t>/news,601127,1233834852.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3249</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
+          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-10 17:20</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1233704587.html</t>
+          <t>/news,601127,1233712900.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
+          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-10 16:49</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1233354019.html</t>
+          <t>/news,601127,1233704565.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1448</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯9月新能源汽车销量同比增长341.33%</t>
+          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-09 20:54</t>
+          <t>10-10 16:49</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1233351317.html</t>
+          <t>/news,601127,1233704587.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯：9月赛力斯汽车销量同比增长598%</t>
+          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-09 20:31</t>
+          <t>10-09 21:12</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1233349164.html</t>
+          <t>/news,601127,1233354019.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,39 +467,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
+          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-18 07:35</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1248150575.html</t>
+          <t>/news,601127,1248769930.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5407</t>
+          <t>824</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 21:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1248096262.html</t>
+          <t>/news,601127,1248636214.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>4495</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
+          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-17 08:00</t>
+          <t>11-19 06:42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1247669522.html</t>
+          <t>/news,601127,1248633256.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
+          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-16 07:32</t>
+          <t>11-18 07:35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1247172531.html</t>
+          <t>/news,601127,1248150575.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>6238</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>11-17 21:42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1248096262.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,39 +819,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>515</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2604</t>
+          <t>796</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,61 +957,61 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1566</t>
+          <t>2630</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,61 +1053,61 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1383</t>
+          <t>644</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>1582</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1147</t>
+          <t>1397</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>1534</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,93 +1277,93 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,93 +1373,93 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2254</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>1471</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2235</t>
+          <t>2269</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1251</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>875</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>2240</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>1255</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>1147</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2963</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,61 +1853,61 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>10-28 19:20</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1240512647.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>10-28 19:13</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1240510452.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：第三季度净亏损9.47亿元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 18:50</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1240499841.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>862</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>10-28 18:44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1240497763.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1532</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>10-28 07:32</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1240044866.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1239494633.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>10-26 07:32</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1238965724.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>1566</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>10-25 23:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1238933441.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 15:08</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1238784407.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1181</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>10-25 14:12</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1238737272.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-25 13:33</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1238703580.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2452</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1238444163.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-24 22:06</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1238403886.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-24 22:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1238402712.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯：拟2亿元-4亿元回购股份</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-24 21:53</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1238392968.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-23 15:14</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1237865989.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1335</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-22 07:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1237794446.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-21 07:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1237344991.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-20 07:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1236885814.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>1339</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,24 +2493,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-19 17:36</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1236761891.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1543</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-19 16:55</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1236753926.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-19 14:40</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1236705907.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>791</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,61 +2589,61 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-19 14:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1236695284.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1544</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-19 13:02</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1236625894.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-19 07:32</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1236437058.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,61 +2685,61 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-18 07:28</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1236039338.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1558</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
+          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-13 16:20</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1234926665.html</t>
+          <t>/news,601127,1235581148.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
+          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-13 07:28</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1234642319.html</t>
+          <t>/news,601127,1235509812.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
+          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-14 07:31</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1234209752.html</t>
+          <t>/news,601127,1235079209.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>1559</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
+          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-13 16:20</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1234145654.html</t>
+          <t>/news,601127,1234926665.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1229</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
+          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-13 07:28</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1234145657.html</t>
+          <t>/news,601127,1234642319.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
+          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-11 07:38</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1233834852.html</t>
+          <t>/news,601127,1234209752.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1911</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
+          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-10 17:20</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1233712900.html</t>
+          <t>/news,601127,1234145654.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，赛力斯跌停（10-10）</t>
+          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1233704565.html</t>
+          <t>/news,601127,1234145657.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3253</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯(601127)龙虎榜数据(10-10)</t>
+          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-10 16:49</t>
+          <t>10-11 07:38</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1233704587.html</t>
+          <t>/news,601127,1233834852.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>跟华为绑定越深卖得越好？赛力斯汽车9月销量破万同比增近6倍</t>
+          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-09 21:12</t>
+          <t>10-10 17:20</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1233354019.html</t>
+          <t>/news,601127,1233712900.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>834</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4495</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6238</t>
+          <t>6265</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1033,7 +1033,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2630</t>
+          <t>2633</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1129,7 +1129,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1582</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1397</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1481,7 +1481,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2269</t>
+          <t>2270</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1865,7 +1865,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2089,7 +2089,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1566</t>
+          <t>1567</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2281,7 +2281,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>1271</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,71 +467,71 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
+          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 07:32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1248769930.html</t>
+          <t>/news,601127,1249345018.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
+          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1248636214.html</t>
+          <t>/news,601127,1248769930.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4578</t>
+          <t>931</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-19 06:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1248633256.html</t>
+          <t>/news,601127,1248636214.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>4850</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
+          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-18 07:35</t>
+          <t>11-19 06:42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1248150575.html</t>
+          <t>/news,601127,1248633256.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
+          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-17 21:42</t>
+          <t>11-18 07:35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1248096262.html</t>
+          <t>/news,601127,1248150575.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>6354</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
+          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-17 08:00</t>
+          <t>11-17 21:42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1247669522.html</t>
+          <t>/news,601127,1248096262.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-16 07:32</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1247172531.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,93 +893,93 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>797</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2633</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,93 +1053,93 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>1593</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>1540</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>1156</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,125 +1373,125 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2270</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>2274</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2240</t>
+          <t>881</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>2243</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1147</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>773</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>10-28 19:20</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1240512647.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>601</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,93 +1949,93 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>10-28 19:13</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1240510452.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>2966</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>赛力斯：第三季度净亏损9.47亿元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>10-28 18:50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1240499841.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>863</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>10-28 18:44</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1240497763.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 07:32</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1240044866.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1239494633.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1567</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>10-26 07:32</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1238965724.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>1596</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>10-25 23:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1238933441.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1190</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>10-25 15:08</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1238784407.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>10-25 14:12</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1238737272.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 13:33</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1238703580.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1238444163.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-24 22:06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1238403886.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>1276</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-24 22:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1238402712.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>2457</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯：拟2亿元-4亿元回购股份</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-24 21:53</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1238392968.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-23 15:14</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1237865989.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-22 07:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1237794446.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-21 07:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1237344991.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1339</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-20 07:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1236885814.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-19 17:36</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1236761891.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-19 16:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1236753926.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-19 14:40</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1236705907.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1544</t>
+          <t>793</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-19 14:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1236695284.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>1546</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-19 13:02</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1236625894.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,93 +2685,93 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-19 07:32</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1236437058.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-18 07:28</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1236039338.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1235581148.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1235509812.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1559</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
+          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-13 16:20</t>
+          <t>10-14 07:31</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1234926665.html</t>
+          <t>/news,601127,1235079209.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1560</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
+          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-13 07:28</t>
+          <t>10-13 16:20</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1234642319.html</t>
+          <t>/news,601127,1234926665.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
+          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 07:28</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1234209752.html</t>
+          <t>/news,601127,1234642319.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
+          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1234145654.html</t>
+          <t>/news,601127,1234209752.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
+          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2946,24 +2946,24 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1234145657.html</t>
+          <t>/news,601127,1234145654.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
+          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-11 07:38</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1233834852.html</t>
+          <t>/news,601127,1234145657.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯封跌停板 买卖前五净卖出1亿元</t>
+          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-10 17:20</t>
+          <t>10-11 07:38</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1233712900.html</t>
+          <t>/news,601127,1233834852.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
+          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,61 +477,61 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 07:32</t>
+          <t>11-23 07:28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1249345018.html</t>
+          <t>/news,601127,1249871596.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>2049</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
+          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-23 07:20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1248769930.html</t>
+          <t>/news,601127,1249870614.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
+          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,61 +541,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-22 07:32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1248636214.html</t>
+          <t>/news,601127,1249345018.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4850</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
+          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-19 06:42</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1248633256.html</t>
+          <t>/news,601127,1248769930.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>958</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-18 07:35</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1248150575.html</t>
+          <t>/news,601127,1248636214.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6354</t>
+          <t>5036</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
+          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-17 21:42</t>
+          <t>11-19 06:42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1248096262.html</t>
+          <t>/news,601127,1248633256.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
+          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-17 08:00</t>
+          <t>11-18 07:35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1247669522.html</t>
+          <t>/news,601127,1248150575.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>6420</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
+          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-16 07:32</t>
+          <t>11-17 21:42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1247172531.html</t>
+          <t>/news,601127,1248096262.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,51 +797,51 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,51 +925,51 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,61 +989,61 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>798</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,61 +1085,61 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>2663</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,61 +1149,61 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1593</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1601</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1156</t>
+          <t>1543</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>1159</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>3047</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,103 +1459,103 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2274</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2243</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>882</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>2244</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>773</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2966</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>10-28 19:20</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1240512647.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>605</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>10-28 19:13</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1240510452.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>2966</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>赛力斯：第三季度净亏损9.47亿元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>10-28 18:50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1240499841.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>863</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 18:44</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1240497763.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>10-28 07:32</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1240044866.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1596</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1239494633.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1190</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>10-26 07:32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1238965724.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>10-25 23:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1238933441.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>1191</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>10-25 15:08</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1238784407.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 14:12</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1238737272.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>10-25 13:33</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1238703580.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1238444163.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2457</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,61 +2365,61 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-24 22:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1238403886.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>1276</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-24 22:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1238402712.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>2457</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯：拟2亿元-4亿元回购股份</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-24 21:53</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1238392968.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,39 +2451,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-23 15:14</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1237865989.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-22 07:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1237794446.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-21 07:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1237344991.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-20 07:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1236885814.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-19 17:36</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1236761891.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-19 16:55</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1236753926.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1546</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-19 14:40</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1236705907.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>793</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-19 14:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1236695284.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-19 13:02</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1236625894.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,39 +2739,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-19 07:32</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1236437058.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,61 +2781,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-18 07:28</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1236039338.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1235581148.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
+          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-13 16:20</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1234926665.html</t>
+          <t>/news,601127,1235509812.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
+          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-13 07:28</t>
+          <t>10-14 07:31</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1234642319.html</t>
+          <t>/news,601127,1235079209.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>1562</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
+          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 16:20</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1234209752.html</t>
+          <t>/news,601127,1234926665.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
+          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-13 07:28</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1234145654.html</t>
+          <t>/news,601127,1234642319.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯董事刘昌东增持3000股 增持金额14.92万元</t>
+          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1234145657.html</t>
+          <t>/news,601127,1234209752.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>1916</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4993.26万元，两市排名第20（10-10）</t>
+          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-11 07:38</t>
+          <t>10-11 21:03</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1233834852.html</t>
+          <t>/news,601127,1234145654.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,83 +477,83 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 07:28</t>
+          <t>11-24 07:26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1249871596.html</t>
+          <t>/news,601127,1250415350.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2049</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
+          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 07:20</t>
+          <t>11-23 07:28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1249870614.html</t>
+          <t>/news,601127,1249871596.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>2194</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
+          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 07:32</t>
+          <t>11-23 07:20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1249345018.html</t>
+          <t>/news,601127,1249870614.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,71 +563,71 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
+          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 07:32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1248769930.html</t>
+          <t>/news,601127,1249345018.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
+          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1248636214.html</t>
+          <t>/news,601127,1248769930.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5036</t>
+          <t>963</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-19 06:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1248633256.html</t>
+          <t>/news,601127,1248636214.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>5144</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
+          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-18 07:35</t>
+          <t>11-19 06:42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1248150575.html</t>
+          <t>/news,601127,1248633256.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
+          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-17 21:42</t>
+          <t>11-18 07:35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1248096262.html</t>
+          <t>/news,601127,1248150575.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>6591</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
+          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-17 08:00</t>
+          <t>11-17 21:42</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1247669522.html</t>
+          <t>/news,601127,1248096262.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-16 07:32</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1247172531.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,93 +989,93 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>800</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2663</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,93 +1149,93 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>2673</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1601</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1413</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1543</t>
+          <t>1418</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>1544</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1159</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3047</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>3048</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,125 +1469,125 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>2282</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2244</t>
+          <t>883</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>2244</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>773</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>626</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>10-28 19:20</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1240512647.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2966</t>
+          <t>605</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,93 +2045,93 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>10-28 19:13</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1240510452.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>2966</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>赛力斯：第三季度净亏损9.47亿元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>10-28 18:50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1240499841.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>863</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>10-28 18:44</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1240497763.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 07:32</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1240044866.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1239494633.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>10-26 07:32</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1238965724.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1191</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>10-25 23:53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1238933441.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>10-25 15:08</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1238784407.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>10-25 14:12</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1238737272.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 13:33</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1238703580.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1238444163.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-24 22:06</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1238403886.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2457</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-24 22:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1238402712.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>2457</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯：拟2亿元-4亿元回购股份</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-24 21:53</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1238392968.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-23 15:14</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1237865989.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-22 07:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1237794446.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-21 07:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1237344991.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-20 07:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1236885814.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-19 17:36</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1236761891.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-19 16:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1236753926.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-19 14:40</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1236705907.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>793</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-19 14:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1236695284.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>1549</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-19 13:02</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1236625894.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,93 +2781,93 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-19 07:32</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1236437058.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-18 07:28</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1236039338.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1235581148.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1235509812.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1562</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
+          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-13 16:20</t>
+          <t>10-14 07:31</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1234926665.html</t>
+          <t>/news,601127,1235079209.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>1563</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
+          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-13 07:28</t>
+          <t>10-13 16:20</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1234642319.html</t>
+          <t>/news,601127,1234926665.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
+          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 07:28</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1234209752.html</t>
+          <t>/news,601127,1234642319.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1916</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯高级管理人员申薇增持8500股 增持金额42.27万元</t>
+          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-11 21:03</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1234145654.html</t>
+          <t>/news,601127,1234209752.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
+          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 07:26</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1250415350.html</t>
+          <t>/news,601127,1250942863.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>3684</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
+          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 07:28</t>
+          <t>11-24 19:17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1249871596.html</t>
+          <t>/news,601127,1250790676.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2194</t>
+          <t>892</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
+          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-23 07:20</t>
+          <t>11-24 17:43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1249870614.html</t>
+          <t>/news,601127,1250771693.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,51 +573,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-22 07:32</t>
+          <t>11-24 07:26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1249345018.html</t>
+          <t>/news,601127,1250415350.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
+          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-23 07:28</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1248769930.html</t>
+          <t>/news,601127,1249871596.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,39 +627,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
+          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-23 07:20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1248636214.html</t>
+          <t>/news,601127,1249870614.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5144</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
+          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-19 06:42</t>
+          <t>11-22 07:32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1248633256.html</t>
+          <t>/news,601127,1249345018.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,39 +691,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
+          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-18 07:35</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1248150575.html</t>
+          <t>/news,601127,1248769930.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6591</t>
+          <t>965</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-17 21:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1248096262.html</t>
+          <t>/news,601127,1248636214.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>5245</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
+          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-17 08:00</t>
+          <t>11-19 06:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1247669522.html</t>
+          <t>/news,601127,1248633256.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
+          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-16 07:32</t>
+          <t>11-18 07:35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1247172531.html</t>
+          <t>/news,601127,1248150575.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>6655</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>11-17 21:42</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1248096262.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,39 +947,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2673</t>
+          <t>800</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,61 +1181,61 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>2681</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,61 +1277,61 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1418</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1544</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>1610</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3048</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,93 +1501,93 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>3049</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,93 +1597,93 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2282</t>
+          <t>656</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>1474</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2244</t>
+          <t>2286</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>887</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>2244</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>1149</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>774</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2966</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>10-28 19:20</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1240512647.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>609</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>10-28 19:13</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1240510452.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>2966</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：第三季度净亏损9.47亿元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 18:50</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1240499841.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>863</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>10-28 18:44</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1240497763.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>10-28 07:32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1240044866.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1194</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1239494633.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>10-26 07:32</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1238965724.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>10-25 23:53</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1238933441.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 15:08</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1238784407.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>10-25 14:12</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1238737272.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-25 13:33</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1238703580.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2457</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1238444163.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-24 22:06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1238403886.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-24 22:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1238402712.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>2457</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯：拟2亿元-4亿元回购股份</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,61 +2557,61 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-24 21:53</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1238392968.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-23 15:14</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1237865989.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-22 07:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1237794446.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-21 07:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1237344991.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-20 07:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1236885814.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,24 +2717,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-19 17:36</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1236761891.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-19 16:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1236753926.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-19 14:40</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1236705907.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>794</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,61 +2813,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-19 14:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1236695284.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>1549</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-19 13:02</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1236625894.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-19 07:32</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1236437058.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-18 07:28</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1236039338.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯汽车发布9月销量快报 同比增长598%</t>
+          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-13 16:20</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1234926665.html</t>
+          <t>/news,601127,1235581148.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯：连续7日融资净偿还累计2.38亿元（10-12）</t>
+          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-13 07:28</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1234642319.html</t>
+          <t>/news,601127,1235509812.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯：连续6日融资净偿还累计2.34亿元（10-11）</t>
+          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-14 07:31</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1234209752.html</t>
+          <t>/news,601127,1235079209.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,49 +457,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
+          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1250942863.html</t>
+          <t>/news,601127,1254650956.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3684</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
+          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,61 +509,61 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 19:17</t>
+          <t>12-03 07:36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1250790676.html</t>
+          <t>/news,601127,1254510172.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>3493</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
+          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 17:43</t>
+          <t>12-02 22:10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1250771693.html</t>
+          <t>/news,601127,1254417665.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>6479</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
+          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-24 07:26</t>
+          <t>12-02 21:56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1250415350.html</t>
+          <t>/news,601127,1254411854.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>2361</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
+          <t>赛力斯首次回购股份61.50万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,51 +605,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-23 07:28</t>
+          <t>12-02 21:15</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1249871596.html</t>
+          <t>/news,601127,1254397104.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>1717</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
+          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-23 07:20</t>
+          <t>12-02 20:57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1249870614.html</t>
+          <t>/news,601127,1254392043.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,71 +659,71 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
+          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 07:32</t>
+          <t>12-02 20:32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1249345018.html</t>
+          <t>/news,601127,1254381271.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
+          <t>赛力斯首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>12-02 19:32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1248769930.html</t>
+          <t>/news,601127,1254361363.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
+          <t>赛力斯：首次回购约62万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>12-02 17:22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1248636214.html</t>
+          <t>/news,601127,1254321771.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
+          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-19 06:42</t>
+          <t>12-02 17:19</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1248633256.html</t>
+          <t>/news,601127,1254321017.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>2617</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
+          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-18 07:35</t>
+          <t>12-02 16:23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1248150575.html</t>
+          <t>/news,601127,1254305273.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>5532</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
+          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-17 21:42</t>
+          <t>12-02 09:38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1248096262.html</t>
+          <t>/news,601127,1253959721.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
+          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 08:00</t>
+          <t>12-02 07:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1247669522.html</t>
+          <t>/news,601127,1253910048.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>2704</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
+          <t>AITO问界11月交付首次环比下降 赛</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-16 07:32</t>
+          <t>12-01 23:46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1247172531.html</t>
+          <t>/news,601127,1253868102.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,61 +925,61 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>12-01 22:11</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1253841897.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>2920</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>12-01 20:40</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1253811946.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>67340</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>12-01 20:24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1253805781.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>3250</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>12-01 20:10</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1253800289.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>2274</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>12-01 19:06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1253775624.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>2801</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>12-01 17:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1253749411.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>3511</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,51 +1117,51 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>12-01 17:27</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1253747836.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>7366</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>12-01 17:21</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1253746349.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>12-01 07:26</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1253297325.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-30 07:26</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1252773755.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-29 07:31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1252209303.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2681</t>
+          <t>4905</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1251735335.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1251591199.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>16605</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-26 11:32</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1251451471.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>993</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-26 07:27</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1251430125.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>994</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1250942863.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,61 +1437,61 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-24 19:17</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1250790676.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>955</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-24 17:43</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1250771693.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-24 07:26</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1250415350.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-23 07:28</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1249871596.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>2676</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-23 07:20</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1249870614.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,93 +1597,93 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-22 07:32</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1249345018.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1248769930.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>983</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1248636214.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>5550</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>11-19 06:42</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1248633256.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2286</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>11-18 07:35</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1248150575.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>6887</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>11-17 21:42</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1248096262.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2244</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>816</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度净亏损26.75亿元 问界系列新能源汽车销量大增 但仍处于新品投放爬坡阶段</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 19:20</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1240512647.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 19:13</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1240510452.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2966</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净亏损9.47亿元</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,93 +2173,93 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 18:50</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1240499841.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>2747</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯：2022年前三季度净利润亏损26.75亿元，上年同期亏损10.83亿元</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 18:44</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1240497763.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1787.89万元，融资余额23.21亿元（10-27）</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 07:32</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1240044866.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3万元，融资余额23.39亿元（10-26）</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1239494633.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>1702</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入154.64万元，融资余额23.39亿元（10-25）</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 07:32</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1238965724.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1517</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>多家机构定增现浮亏 赛力斯拟斥资2亿元至4亿元回购股份</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 23:53</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1238933441.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯公布股票回购计划 未来一年回购2亿元到4亿元股份</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 15:08</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1238784407.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯拟回购2亿-4亿元公司股份 用于员工持股计划、股权激励等</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 14:12</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1238737272.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：拟以自有资金不超过4亿元回购公司股份</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 13:33</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1238703580.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>3128</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计1.29亿元（10-24）</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1238444163.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿至4亿元回购公司股份</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-24 22:06</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1238403886.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯：拟回购不低于2亿元且不超过4亿元公司股份</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-24 22:00</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1238402712.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2457</t>
+          <t>680</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯：拟2亿元-4亿元回购股份</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-24 21:53</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1238392968.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还8263.38万元，居汽车整车板块第一</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-23 15:14</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1237865989.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1493</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计6894.94万元（10-21）</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-22 07:30</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1237794446.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>2332</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1270.17万元，融资余额24.43亿元（10-20）</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-21 07:30</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1237344991.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1121.31万元，融资余额24.55亿元（10-19）</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-20 07:30</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1236885814.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>908</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯成立新能源汽车制造公司 注册资本1亿元</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-19 17:36</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1236761891.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>2258</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-19 16:55</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1236753926.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>1273</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯1亿元重庆设新能源汽车制造新公司</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-19 14:40</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1236705907.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯1亿元于重庆设新能源汽车制造新公司</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-19 14:30</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1236695284.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯汽车与文灿集团签订战略合作协议</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-19 13:02</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1236625894.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1022.1万元，融资余额24.67亿元（10-18）</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-19 07:32</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1236437058.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯：连续10日融资净偿还累计3.01亿元（10-17）</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-18 07:28</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1236039338.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还9481.61万元，居汽车整车板块第二</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1235581148.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯：连续9日融资净偿还累计2.78亿元（10-14）</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1235509812.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯：连续8日融资净偿还累计2.59亿元（10-13）</t>
+          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-14 07:31</t>
+          <t>10-28 19:31</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1235079209.html</t>
+          <t>/news,601127,1240511061.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
+          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1254650956.html</t>
+          <t>/news,601127,1255445240.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
+          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-03 07:36</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1254510172.html</t>
+          <t>/news,601127,1254650956.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3493</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
+          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-02 22:10</t>
+          <t>12-03 07:36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1254417665.html</t>
+          <t>/news,601127,1254510172.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6479</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
+          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-02 21:56</t>
+          <t>12-02 22:10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1254411854.html</t>
+          <t>/news,601127,1254417665.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2361</t>
+          <t>6630</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯首次回购股份61.50万股</t>
+          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-02 21:15</t>
+          <t>12-02 21:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1254397104.html</t>
+          <t>/news,601127,1254411854.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>2410</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
+          <t>赛力斯首次回购股份61.50万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,93 +637,93 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-02 20:57</t>
+          <t>12-02 21:15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1254392043.html</t>
+          <t>/news,601127,1254397104.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>1788</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
+          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 20:32</t>
+          <t>12-02 20:57</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1254381271.html</t>
+          <t>/news,601127,1254392043.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯首次回购61.5万股公司股份</t>
+          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 19:32</t>
+          <t>12-02 20:32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1254361363.html</t>
+          <t>/news,601127,1254381271.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1844</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯：首次回购约62万股</t>
+          <t>赛力斯首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 17:22</t>
+          <t>12-02 19:32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1254321771.html</t>
+          <t>/news,601127,1254361363.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
+          <t>赛力斯：首次回购约62万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 17:19</t>
+          <t>12-02 17:22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1254321017.html</t>
+          <t>/news,601127,1254321771.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2617</t>
+          <t>2120</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
+          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 16:23</t>
+          <t>12-02 17:19</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1254305273.html</t>
+          <t>/news,601127,1254321017.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5532</t>
+          <t>2671</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
+          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 09:38</t>
+          <t>12-02 16:23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1253959721.html</t>
+          <t>/news,601127,1254305273.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>5560</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
+          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 07:30</t>
+          <t>12-02 09:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1253910048.html</t>
+          <t>/news,601127,1253959721.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2704</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AITO问界11月交付首次环比下降 赛</t>
+          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 23:46</t>
+          <t>12-02 07:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1253868102.html</t>
+          <t>/news,601127,1253910048.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2395</t>
+          <t>2735</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
+          <t>AITO问界11月交付首次环比下降 赛力斯称受供应链紧张等多重影响</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 22:11</t>
+          <t>12-01 23:46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1253841897.html</t>
+          <t>/news,601127,1253868102.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2920</t>
+          <t>2403</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
+          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 20:40</t>
+          <t>12-01 22:11</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1253811946.html</t>
+          <t>/news,601127,1253841897.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>67340</t>
+          <t>2927</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
+          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 20:24</t>
+          <t>12-01 20:40</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1253805781.html</t>
+          <t>/news,601127,1253811946.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3250</t>
+          <t>67440</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
+          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 20:10</t>
+          <t>12-01 20:24</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1253800289.html</t>
+          <t>/news,601127,1253805781.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2274</t>
+          <t>3259</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
+          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 19:06</t>
+          <t>12-01 20:10</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1253775624.html</t>
+          <t>/news,601127,1253800289.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2801</t>
+          <t>2278</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
+          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 17:30</t>
+          <t>12-01 19:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1253749411.html</t>
+          <t>/news,601127,1253775624.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3511</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
+          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 17:27</t>
+          <t>12-01 17:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1253747836.html</t>
+          <t>/news,601127,1253749411.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7366</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 17:21</t>
+          <t>12-01 17:27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1253746349.html</t>
+          <t>/news,601127,1253747836.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>7378</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 07:26</t>
+          <t>12-01 17:21</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1253297325.html</t>
+          <t>/news,601127,1253746349.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
+          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 07:26</t>
+          <t>12-01 07:26</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1252773755.html</t>
+          <t>/news,601127,1253297325.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
+          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-29 07:31</t>
+          <t>11-30 07:26</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1252209303.html</t>
+          <t>/news,601127,1252773755.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4905</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
+          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,93 +1277,93 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>11-29 07:31</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1251735335.html</t>
+          <t>/news,601127,1252209303.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>4909</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
+          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1251591199.html</t>
+          <t>/news,601127,1251735335.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>16605</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
+          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-26 11:32</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1251451471.html</t>
+          <t>/news,601127,1251591199.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>16615</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
+          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-26 07:27</t>
+          <t>11-26 11:32</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1251430125.html</t>
+          <t>/news,601127,1251451471.html</t>
         </is>
       </c>
     </row>
@@ -1390,12 +1390,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
+          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>11-26 07:27</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1250942863.html</t>
+          <t>/news,601127,1251430125.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4286</t>
+          <t>996</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
+          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,93 +1437,93 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-24 19:17</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1250790676.html</t>
+          <t>/news,601127,1250942863.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>4289</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
+          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-24 17:43</t>
+          <t>11-24 19:17</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1250771693.html</t>
+          <t>/news,601127,1250790676.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>955</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
+          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-24 07:26</t>
+          <t>11-24 17:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1250415350.html</t>
+          <t>/news,601127,1250771693.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,83 +1533,83 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-23 07:28</t>
+          <t>11-24 07:26</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1249871596.html</t>
+          <t>/news,601127,1250415350.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2676</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
+          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-23 07:20</t>
+          <t>11-23 07:28</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1249870614.html</t>
+          <t>/news,601127,1249871596.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>2678</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
+          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-22 07:32</t>
+          <t>11-23 07:20</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1249345018.html</t>
+          <t>/news,601127,1249870614.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,71 +1619,71 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
+          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 07:32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1248769930.html</t>
+          <t>/news,601127,1249345018.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
+          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1248636214.html</t>
+          <t>/news,601127,1248769930.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5550</t>
+          <t>983</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-19 06:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1248633256.html</t>
+          <t>/news,601127,1248636214.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>5556</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
+          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-18 07:35</t>
+          <t>11-19 06:42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1248150575.html</t>
+          <t>/news,601127,1248633256.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6887</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
+          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-17 21:42</t>
+          <t>11-18 07:35</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1248096262.html</t>
+          <t>/news,601127,1248150575.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>6890</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
+          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-17 08:00</t>
+          <t>11-17 21:42</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1247669522.html</t>
+          <t>/news,601127,1248096262.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-16 07:32</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1247172531.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,39 +1907,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,93 +2045,93 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>816</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2747</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,93 +2205,93 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>2749</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>663</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1702</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>1702</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1519</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>3129</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,125 +2525,125 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1493</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2332</t>
+          <t>1493</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>2334</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2258</t>
+          <t>908</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1273</t>
+          <t>2258</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>1273</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯股东户数增加12.27%，户均持股66.74万元</t>
+          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 19:31</t>
+          <t>10-28 20:46</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1240511061.html</t>
+          <t>/news,601127,1240533551.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
+          <t>赛力斯：融资净偿还981.17万元，融资余额15.27亿元（12-06）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 07:34</t>
+          <t>12-07 07:25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1255445240.html</t>
+          <t>/news,601127,1256086953.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
+          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1254650956.html</t>
+          <t>/news,601127,1255445240.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,39 +531,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
+          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-03 07:36</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1254510172.html</t>
+          <t>/news,601127,1254650956.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3799</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
+          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-02 22:10</t>
+          <t>12-03 07:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1254417665.html</t>
+          <t>/news,601127,1254510172.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6630</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
+          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-02 21:56</t>
+          <t>12-02 22:10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1254411854.html</t>
+          <t>/news,601127,1254417665.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>6729</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯首次回购股份61.50万股</t>
+          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-02 21:15</t>
+          <t>12-02 21:56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1254397104.html</t>
+          <t>/news,601127,1254411854.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1788</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
+          <t>赛力斯首次回购股份61.50万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,93 +669,93 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 20:57</t>
+          <t>12-02 21:15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1254392043.html</t>
+          <t>/news,601127,1254397104.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
+          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 20:32</t>
+          <t>12-02 20:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1254381271.html</t>
+          <t>/news,601127,1254392043.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯首次回购61.5万股公司股份</t>
+          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 19:32</t>
+          <t>12-02 20:32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1254361363.html</t>
+          <t>/news,601127,1254381271.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯：首次回购约62万股</t>
+          <t>赛力斯首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 17:22</t>
+          <t>12-02 19:32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1254321771.html</t>
+          <t>/news,601127,1254361363.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2120</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
+          <t>赛力斯：首次回购约62万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 17:19</t>
+          <t>12-02 17:22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1254321017.html</t>
+          <t>/news,601127,1254321771.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2671</t>
+          <t>2142</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
+          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 16:23</t>
+          <t>12-02 17:19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1254305273.html</t>
+          <t>/news,601127,1254321017.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5560</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
+          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 09:38</t>
+          <t>12-02 16:23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1253959721.html</t>
+          <t>/news,601127,1254305273.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
+          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 07:30</t>
+          <t>12-02 09:38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1253910048.html</t>
+          <t>/news,601127,1253959721.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2735</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AITO问界11月交付首次环比下降 赛力斯称受供应链紧张等多重影响</t>
+          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 23:46</t>
+          <t>12-02 07:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1253868102.html</t>
+          <t>/news,601127,1253910048.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2403</t>
+          <t>2754</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
+          <t>AITO问界11月交付首次环比下降 赛力斯称受供应链紧张等多重影响</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 22:11</t>
+          <t>12-01 23:46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1253841897.html</t>
+          <t>/news,601127,1253868102.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2927</t>
+          <t>2414</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
+          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 20:40</t>
+          <t>12-01 22:11</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1253811946.html</t>
+          <t>/news,601127,1253841897.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>67440</t>
+          <t>2935</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
+          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 20:24</t>
+          <t>12-01 20:40</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1253805781.html</t>
+          <t>/news,601127,1253811946.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3259</t>
+          <t>67484</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
+          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 20:10</t>
+          <t>12-01 20:24</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1253800289.html</t>
+          <t>/news,601127,1253805781.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2278</t>
+          <t>3262</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
+          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 19:06</t>
+          <t>12-01 20:10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1253775624.html</t>
+          <t>/news,601127,1253800289.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>2285</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
+          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 17:30</t>
+          <t>12-01 19:06</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1253749411.html</t>
+          <t>/news,601127,1253775624.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3518</t>
+          <t>2813</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
+          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 17:27</t>
+          <t>12-01 17:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1253747836.html</t>
+          <t>/news,601127,1253749411.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7378</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 17:21</t>
+          <t>12-01 17:27</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1253746349.html</t>
+          <t>/news,601127,1253747836.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>7389</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 07:26</t>
+          <t>12-01 17:21</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1253297325.html</t>
+          <t>/news,601127,1253746349.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
+          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 07:26</t>
+          <t>12-01 07:26</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1252773755.html</t>
+          <t>/news,601127,1253297325.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
+          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-29 07:31</t>
+          <t>11-30 07:26</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1252209303.html</t>
+          <t>/news,601127,1252773755.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4909</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
+          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,93 +1309,93 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>11-29 07:31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1251735335.html</t>
+          <t>/news,601127,1252209303.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>4917</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
+          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1251591199.html</t>
+          <t>/news,601127,1251735335.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>16615</t>
+          <t>702</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
+          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-26 11:32</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1251451471.html</t>
+          <t>/news,601127,1251591199.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>16634</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
+          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-26 07:27</t>
+          <t>11-26 11:32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1251430125.html</t>
+          <t>/news,601127,1251451471.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>995</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
+          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>11-26 07:27</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1250942863.html</t>
+          <t>/news,601127,1251430125.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4289</t>
+          <t>997</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
+          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,93 +1469,93 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-24 19:17</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1250790676.html</t>
+          <t>/news,601127,1250942863.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
+          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-24 17:43</t>
+          <t>11-24 19:17</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1250771693.html</t>
+          <t>/news,601127,1250790676.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>957</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
+          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-24 07:26</t>
+          <t>11-24 17:43</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1250415350.html</t>
+          <t>/news,601127,1250771693.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,83 +1565,83 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-23 07:28</t>
+          <t>11-24 07:26</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1249871596.html</t>
+          <t>/news,601127,1250415350.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2678</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
+          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-23 07:20</t>
+          <t>11-23 07:28</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1249870614.html</t>
+          <t>/news,601127,1249871596.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>2683</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
+          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 07:32</t>
+          <t>11-23 07:20</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1249345018.html</t>
+          <t>/news,601127,1249870614.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,71 +1651,71 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
+          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 07:32</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1248769930.html</t>
+          <t>/news,601127,1249345018.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
+          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1248636214.html</t>
+          <t>/news,601127,1248769930.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5556</t>
+          <t>985</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-19 06:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1248633256.html</t>
+          <t>/news,601127,1248636214.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>5560</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
+          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-18 07:35</t>
+          <t>11-19 06:42</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1248150575.html</t>
+          <t>/news,601127,1248633256.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6890</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
+          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-17 21:42</t>
+          <t>11-18 07:35</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1248096262.html</t>
+          <t>/news,601127,1248150575.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>6893</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
+          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-17 08:00</t>
+          <t>11-17 21:42</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1247669522.html</t>
+          <t>/news,601127,1248096262.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-16 07:32</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1247172531.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,93 +2077,93 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>816</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2749</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,93 +2237,93 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1702</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1519</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1519</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3129</t>
+          <t>1206</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>3130</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,125 +2557,125 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>684</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1493</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2334</t>
+          <t>1493</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>2336</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2258</t>
+          <t>908</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1273</t>
+          <t>2260</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>1273</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240549400.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯前三季度营收231亿元 已超越去年全年营收</t>
+          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 20:46</t>
+          <t>10-28 21:14</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1240533551.html</t>
+          <t>/news,601127,1240539258.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还981.17万元，融资余额15.27亿元（12-06）</t>
+          <t>赛力斯：融资净偿还2828.15万元，融资余额14.99亿元（12-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 07:25</t>
+          <t>12-08 07:34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1256086953.html</t>
+          <t>/news,601127,1256752592.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>3881</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
+          <t>赛力斯：小康控股及其一致行动人持有公司股份累计质押数量约为2.3亿股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,61 +509,61 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 07:34</t>
+          <t>12-07 17:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1255445240.html</t>
+          <t>/news,601127,1256552126.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
+          <t>赛力斯：融资净偿还981.17万元，融资余额15.27亿元（12-06）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-07 07:25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1254650956.html</t>
+          <t>/news,601127,1256086953.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
+          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,61 +573,61 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-03 07:36</t>
+          <t>12-06 07:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1254510172.html</t>
+          <t>/news,601127,1255445240.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3980</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
+          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-02 22:10</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1254417665.html</t>
+          <t>/news,601127,1254650956.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6729</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
+          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-02 21:56</t>
+          <t>12-03 07:36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1254411854.html</t>
+          <t>/news,601127,1254510172.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>4060</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯首次回购股份61.50万股</t>
+          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 21:15</t>
+          <t>12-02 22:10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1254397104.html</t>
+          <t>/news,601127,1254417665.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>6785</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
+          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,51 +701,51 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 20:57</t>
+          <t>12-02 21:56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1254392043.html</t>
+          <t>/news,601127,1254411854.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>2480</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
+          <t>赛力斯首次回购股份61.50万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 20:32</t>
+          <t>12-02 21:15</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1254381271.html</t>
+          <t>/news,601127,1254397104.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯首次回购61.5万股公司股份</t>
+          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,61 +765,61 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 19:32</t>
+          <t>12-02 20:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1254361363.html</t>
+          <t>/news,601127,1254392043.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：首次回购约62万股</t>
+          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 17:22</t>
+          <t>12-02 20:32</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1254321771.html</t>
+          <t>/news,601127,1254381271.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2142</t>
+          <t>1879</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
+          <t>赛力斯首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 17:19</t>
+          <t>12-02 19:32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1254321017.html</t>
+          <t>/news,601127,1254361363.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
+          <t>赛力斯：首次回购约62万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 16:23</t>
+          <t>12-02 17:22</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1254305273.html</t>
+          <t>/news,601127,1254321771.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>2151</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
+          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 09:38</t>
+          <t>12-02 17:19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1253959721.html</t>
+          <t>/news,601127,1254321017.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>3047</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
+          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 07:30</t>
+          <t>12-02 16:23</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1253910048.html</t>
+          <t>/news,601127,1254305273.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2754</t>
+          <t>5621</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AITO问界11月交付首次环比下降 赛力斯称受供应链紧张等多重影响</t>
+          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 23:46</t>
+          <t>12-02 09:38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1253868102.html</t>
+          <t>/news,601127,1253959721.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2414</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
+          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 22:11</t>
+          <t>12-02 07:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1253841897.html</t>
+          <t>/news,601127,1253910048.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2935</t>
+          <t>2778</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
+          <t>AITO问界11月交付首次环比下降 赛力斯称受供应链紧张等多重影响</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 20:40</t>
+          <t>12-01 23:46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1253811946.html</t>
+          <t>/news,601127,1253868102.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>67484</t>
+          <t>2422</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
+          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 20:24</t>
+          <t>12-01 22:11</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1253805781.html</t>
+          <t>/news,601127,1253841897.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3262</t>
+          <t>2942</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
+          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 20:10</t>
+          <t>12-01 20:40</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1253800289.html</t>
+          <t>/news,601127,1253811946.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2285</t>
+          <t>67538</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
+          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 19:06</t>
+          <t>12-01 20:24</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1253775624.html</t>
+          <t>/news,601127,1253805781.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2813</t>
+          <t>3268</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
+          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 17:30</t>
+          <t>12-01 20:10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1253749411.html</t>
+          <t>/news,601127,1253800289.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3519</t>
+          <t>2291</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
+          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 17:27</t>
+          <t>12-01 19:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1253747836.html</t>
+          <t>/news,601127,1253775624.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7389</t>
+          <t>2821</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
+          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 17:21</t>
+          <t>12-01 17:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1253746349.html</t>
+          <t>/news,601127,1253749411.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>3523</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-01 07:26</t>
+          <t>12-01 17:27</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1253297325.html</t>
+          <t>/news,601127,1253747836.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>7396</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 07:26</t>
+          <t>12-01 17:21</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1252773755.html</t>
+          <t>/news,601127,1253746349.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
+          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-29 07:31</t>
+          <t>12-01 07:26</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1252209303.html</t>
+          <t>/news,601127,1253297325.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4917</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
+          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,61 +1341,61 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>11-30 07:26</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1251735335.html</t>
+          <t>/news,601127,1252773755.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
+          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>11-29 07:31</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1251591199.html</t>
+          <t>/news,601127,1252209303.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>16634</t>
+          <t>4922</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
+          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,61 +1405,61 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-26 11:32</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1251451471.html</t>
+          <t>/news,601127,1251735335.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
+          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-26 07:27</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1251430125.html</t>
+          <t>/news,601127,1251591199.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>997</t>
+          <t>16644</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
+          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>11-26 11:32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1250942863.html</t>
+          <t>/news,601127,1251451471.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>998</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
+          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,61 +1501,61 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-24 19:17</t>
+          <t>11-26 07:27</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1250790676.html</t>
+          <t>/news,601127,1251430125.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
+          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-24 17:43</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1250771693.html</t>
+          <t>/news,601127,1250942863.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
+          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,93 +1565,93 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 07:26</t>
+          <t>11-24 19:17</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1250415350.html</t>
+          <t>/news,601127,1250790676.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>958</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
+          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-23 07:28</t>
+          <t>11-24 17:43</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1249871596.html</t>
+          <t>/news,601127,1250771693.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2683</t>
+          <t>654</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-23 07:20</t>
+          <t>11-24 07:26</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1249870614.html</t>
+          <t>/news,601127,1250415350.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
+          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,61 +1661,61 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-22 07:32</t>
+          <t>11-23 07:28</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1249345018.html</t>
+          <t>/news,601127,1249871596.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>2686</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
+          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-23 07:20</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1248769930.html</t>
+          <t>/news,601127,1249870614.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
+          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,61 +1725,61 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-22 07:32</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1248636214.html</t>
+          <t>/news,601127,1249345018.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5560</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
+          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-19 06:42</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1248633256.html</t>
+          <t>/news,601127,1248769930.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>986</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-18 07:35</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1248150575.html</t>
+          <t>/news,601127,1248636214.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6893</t>
+          <t>5564</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
+          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-17 21:42</t>
+          <t>11-19 06:42</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1248096262.html</t>
+          <t>/news,601127,1248633256.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
+          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-17 08:00</t>
+          <t>11-18 07:35</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1247669522.html</t>
+          <t>/news,601127,1248150575.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>6897</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
+          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-16 07:32</t>
+          <t>11-17 21:42</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1247172531.html</t>
+          <t>/news,601127,1248096262.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>816</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,61 +2269,61 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1519</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>1520</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3130</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>1206</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,103 +2643,103 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1493</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2336</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>1493</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>2338</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2260</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1273</t>
+          <t>909</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>2260</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>1273</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度营收231亿元超去年全年 新能源汽车业务发展迅猛</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1240549400.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯：前三季度实现营收231亿元 新能源战略稳步推进</t>
+          <t>赛力斯：第三季度净利亏损9.47亿元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 21:14</t>
+          <t>10-28 22:08</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1240539258.html</t>
+          <t>/news,601127,1240555824.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2828.15万元，融资余额14.99亿元（12-07）</t>
+          <t>赛力斯：融资净买入89.06万元，融资余额15亿元（12-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 07:34</t>
+          <t>12-09 07:29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1256752592.html</t>
+          <t>/news,601127,1257389132.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3881</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯：小康控股及其一致行动人持有公司股份累计质押数量约为2.3亿股</t>
+          <t>赛力斯：融资净偿还2828.15万元，融资余额14.99亿元（12-07）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 17:56</t>
+          <t>12-08 07:34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1256552126.html</t>
+          <t>/news,601127,1256752592.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还981.17万元，融资余额15.27亿元（12-06）</t>
+          <t>赛力斯：小康控股及其一致行动人持有公司股份累计质押数量约为2.3亿股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 07:25</t>
+          <t>12-07 17:56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1256086953.html</t>
+          <t>/news,601127,1256552126.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
+          <t>赛力斯：融资净偿还981.17万元，融资余额15.27亿元（12-06）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,51 +573,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 07:34</t>
+          <t>12-07 07:25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1255445240.html</t>
+          <t>/news,601127,1256086953.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
+          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1254650956.html</t>
+          <t>/news,601127,1255445240.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,39 +627,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
+          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-03 07:36</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1254510172.html</t>
+          <t>/news,601127,1254650956.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4060</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
+          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 22:10</t>
+          <t>12-03 07:36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1254417665.html</t>
+          <t>/news,601127,1254510172.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6785</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
+          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 21:56</t>
+          <t>12-02 22:10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1254411854.html</t>
+          <t>/news,601127,1254417665.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>6814</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯首次回购股份61.50万股</t>
+          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 21:15</t>
+          <t>12-02 21:56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1254397104.html</t>
+          <t>/news,601127,1254411854.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>2499</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
+          <t>赛力斯首次回购股份61.50万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,93 +765,93 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 20:57</t>
+          <t>12-02 21:15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1254392043.html</t>
+          <t>/news,601127,1254397104.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
+          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 20:32</t>
+          <t>12-02 20:57</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1254381271.html</t>
+          <t>/news,601127,1254392043.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯首次回购61.5万股公司股份</t>
+          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 19:32</t>
+          <t>12-02 20:32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1254361363.html</t>
+          <t>/news,601127,1254381271.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1886</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯：首次回购约62万股</t>
+          <t>赛力斯首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 17:22</t>
+          <t>12-02 19:32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1254321771.html</t>
+          <t>/news,601127,1254361363.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2151</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
+          <t>赛力斯：首次回购约62万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 17:19</t>
+          <t>12-02 17:22</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1254321017.html</t>
+          <t>/news,601127,1254321771.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3047</t>
+          <t>2157</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
+          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 16:23</t>
+          <t>12-02 17:19</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1254305273.html</t>
+          <t>/news,601127,1254321017.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5621</t>
+          <t>3078</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
+          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-02 09:38</t>
+          <t>12-02 16:23</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1253959721.html</t>
+          <t>/news,601127,1254305273.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>5635</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
+          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 07:30</t>
+          <t>12-02 09:38</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1253910048.html</t>
+          <t>/news,601127,1253959721.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2778</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AITO问界11月交付首次环比下降 赛力斯称受供应链紧张等多重影响</t>
+          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 23:46</t>
+          <t>12-02 07:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1253868102.html</t>
+          <t>/news,601127,1253910048.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2422</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
+          <t>AITO问界11月交付首次环比下降 赛力斯称受供应链紧张等多重影响</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 22:11</t>
+          <t>12-01 23:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1253841897.html</t>
+          <t>/news,601127,1253868102.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2942</t>
+          <t>2431</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
+          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 20:40</t>
+          <t>12-01 22:11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1253811946.html</t>
+          <t>/news,601127,1253841897.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>67538</t>
+          <t>2949</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
+          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 20:24</t>
+          <t>12-01 20:40</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1253805781.html</t>
+          <t>/news,601127,1253811946.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3268</t>
+          <t>67572</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
+          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 20:10</t>
+          <t>12-01 20:24</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1253800289.html</t>
+          <t>/news,601127,1253805781.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2291</t>
+          <t>3272</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
+          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 19:06</t>
+          <t>12-01 20:10</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1253775624.html</t>
+          <t>/news,601127,1253800289.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2821</t>
+          <t>2292</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
+          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 17:30</t>
+          <t>12-01 19:06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1253749411.html</t>
+          <t>/news,601127,1253775624.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3523</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
+          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-01 17:27</t>
+          <t>12-01 17:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1253747836.html</t>
+          <t>/news,601127,1253749411.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7396</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-01 17:21</t>
+          <t>12-01 17:27</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1253746349.html</t>
+          <t>/news,601127,1253747836.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>7405</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-01 07:26</t>
+          <t>12-01 17:21</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1253297325.html</t>
+          <t>/news,601127,1253746349.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
+          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-30 07:26</t>
+          <t>12-01 07:26</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1252773755.html</t>
+          <t>/news,601127,1253297325.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
+          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-29 07:31</t>
+          <t>11-30 07:26</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1252209303.html</t>
+          <t>/news,601127,1252773755.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4922</t>
+          <t>515</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
+          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,93 +1405,93 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>11-29 07:31</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1251735335.html</t>
+          <t>/news,601127,1252209303.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>4926</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
+          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1251591199.html</t>
+          <t>/news,601127,1251735335.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>16644</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
+          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-26 11:32</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1251451471.html</t>
+          <t>/news,601127,1251591199.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>16653</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
+          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-26 07:27</t>
+          <t>11-26 11:32</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1251430125.html</t>
+          <t>/news,601127,1251451471.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>998</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
+          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>11-26 07:27</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1250942863.html</t>
+          <t>/news,601127,1251430125.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4301</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
+          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,93 +1565,93 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 19:17</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1250790676.html</t>
+          <t>/news,601127,1250942863.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
+          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 17:43</t>
+          <t>11-24 19:17</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1250771693.html</t>
+          <t>/news,601127,1250790676.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>959</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
+          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 07:26</t>
+          <t>11-24 17:43</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1250415350.html</t>
+          <t>/news,601127,1250771693.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>654</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,83 +1661,83 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-23 07:28</t>
+          <t>11-24 07:26</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1249871596.html</t>
+          <t>/news,601127,1250415350.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2686</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
+          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 07:20</t>
+          <t>11-23 07:28</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1249870614.html</t>
+          <t>/news,601127,1249871596.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>2687</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
+          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 07:32</t>
+          <t>11-23 07:20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1249345018.html</t>
+          <t>/news,601127,1249870614.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,71 +1747,71 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
+          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 07:32</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1248769930.html</t>
+          <t>/news,601127,1249345018.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
+          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1248636214.html</t>
+          <t>/news,601127,1248769930.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5564</t>
+          <t>986</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-19 06:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1248633256.html</t>
+          <t>/news,601127,1248636214.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>5567</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
+          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-18 07:35</t>
+          <t>11-19 06:42</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1248150575.html</t>
+          <t>/news,601127,1248633256.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6897</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
+          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-17 21:42</t>
+          <t>11-18 07:35</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1248096262.html</t>
+          <t>/news,601127,1248150575.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>6903</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
+          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-17 08:00</t>
+          <t>11-17 21:42</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1247669522.html</t>
+          <t>/news,601127,1248096262.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-16 07:32</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1247172531.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,93 +2173,93 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>816</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,93 +2333,93 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>2752</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>1642</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,125 +2653,125 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1493</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2338</t>
+          <t>1493</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>2339</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2260</t>
+          <t>910</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1273</t>
+          <t>2260</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>1274</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 07:31</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240597132.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯：第三季度净利亏损9.47亿元</t>
+          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 22:08</t>
+          <t>10-28 22:31</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1240555824.html</t>
+          <t>/news,601127,1240561459.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,39 +467,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入89.06万元，融资余额15亿元（12-08）</t>
+          <t>赛力斯本周融资净偿还1203.84万元，居汽车整车板块第九</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 07:29</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1257389132.html</t>
+          <t>/news,601127,1258088644.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2828.15万元，融资余额14.99亿元（12-07）</t>
+          <t>赛力斯：融资净买入514.1万元，融资余额15.05亿元（12-09）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-08 07:34</t>
+          <t>12-10 07:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1256752592.html</t>
+          <t>/news,601127,1257961782.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4045</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：小康控股及其一致行动人持有公司股份累计质押数量约为2.3亿股</t>
+          <t>赛力斯：融资净买入89.06万元，融资余额15亿元（12-08）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 17:56</t>
+          <t>12-09 07:29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1256552126.html</t>
+          <t>/news,601127,1257389132.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还981.17万元，融资余额15.27亿元（12-06）</t>
+          <t>赛力斯：融资净偿还2828.15万元，融资余额14.99亿元（12-07）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-07 07:25</t>
+          <t>12-08 07:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1256086953.html</t>
+          <t>/news,601127,1256752592.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
+          <t>赛力斯：小康控股及其一致行动人持有公司股份累计质押数量约为2.3亿股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,61 +605,61 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 07:34</t>
+          <t>12-07 17:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1255445240.html</t>
+          <t>/news,601127,1256552126.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
+          <t>赛力斯：融资净偿还981.17万元，融资余额15.27亿元（12-06）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-07 07:25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1254650956.html</t>
+          <t>/news,601127,1256086953.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
+          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,61 +669,61 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-03 07:36</t>
+          <t>12-06 07:34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1254510172.html</t>
+          <t>/news,601127,1255445240.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4115</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
+          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 22:10</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1254417665.html</t>
+          <t>/news,601127,1254650956.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6814</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
+          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 21:56</t>
+          <t>12-03 07:36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1254411854.html</t>
+          <t>/news,601127,1254510172.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯首次回购股份61.50万股</t>
+          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 21:15</t>
+          <t>12-02 22:10</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1254397104.html</t>
+          <t>/news,601127,1254417665.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>6863</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
+          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,51 +797,51 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 20:57</t>
+          <t>12-02 21:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1254392043.html</t>
+          <t>/news,601127,1254411854.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>2533</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
+          <t>赛力斯首次回购股份61.50万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 20:32</t>
+          <t>12-02 21:15</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1254381271.html</t>
+          <t>/news,601127,1254397104.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1886</t>
+          <t>2048</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯首次回购61.5万股公司股份</t>
+          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,61 +861,61 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 19:32</t>
+          <t>12-02 20:57</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1254361363.html</t>
+          <t>/news,601127,1254392043.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯：首次回购约62万股</t>
+          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 17:22</t>
+          <t>12-02 20:32</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1254321771.html</t>
+          <t>/news,601127,1254381271.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2157</t>
+          <t>1891</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
+          <t>赛力斯首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 17:19</t>
+          <t>12-02 19:32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1254321017.html</t>
+          <t>/news,601127,1254361363.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3078</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
+          <t>赛力斯：首次回购约62万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-02 16:23</t>
+          <t>12-02 17:22</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1254305273.html</t>
+          <t>/news,601127,1254321771.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5635</t>
+          <t>2169</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
+          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 09:38</t>
+          <t>12-02 17:19</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1253959721.html</t>
+          <t>/news,601127,1254321017.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>3125</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
+          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-02 07:30</t>
+          <t>12-02 16:23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1253910048.html</t>
+          <t>/news,601127,1254305273.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>5663</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AITO问界11月交付首次环比下降 赛力斯称受供应链紧张等多重影响</t>
+          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 23:46</t>
+          <t>12-02 09:38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1253868102.html</t>
+          <t>/news,601127,1253959721.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2431</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
+          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 22:11</t>
+          <t>12-02 07:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1253841897.html</t>
+          <t>/news,601127,1253910048.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2949</t>
+          <t>2827</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
+          <t>AITO问界11月交付首次环比下降 赛力斯称受供应链紧张等多重影响</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 20:40</t>
+          <t>12-01 23:46</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1253811946.html</t>
+          <t>/news,601127,1253868102.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>67572</t>
+          <t>2440</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
+          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 20:24</t>
+          <t>12-01 22:11</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1253805781.html</t>
+          <t>/news,601127,1253841897.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3272</t>
+          <t>2959</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
+          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 20:10</t>
+          <t>12-01 20:40</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1253800289.html</t>
+          <t>/news,601127,1253811946.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2292</t>
+          <t>67673</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
+          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 19:06</t>
+          <t>12-01 20:24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1253775624.html</t>
+          <t>/news,601127,1253805781.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2826</t>
+          <t>3280</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
+          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-01 17:30</t>
+          <t>12-01 20:10</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1253749411.html</t>
+          <t>/news,601127,1253800289.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3527</t>
+          <t>2297</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
+          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-01 17:27</t>
+          <t>12-01 19:06</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1253747836.html</t>
+          <t>/news,601127,1253775624.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7405</t>
+          <t>2842</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
+          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-01 17:21</t>
+          <t>12-01 17:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1253746349.html</t>
+          <t>/news,601127,1253749411.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-01 07:26</t>
+          <t>12-01 17:27</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1253297325.html</t>
+          <t>/news,601127,1253747836.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>7416</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-30 07:26</t>
+          <t>12-01 17:21</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1252773755.html</t>
+          <t>/news,601127,1253746349.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
+          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-29 07:31</t>
+          <t>12-01 07:26</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1252209303.html</t>
+          <t>/news,601127,1253297325.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4926</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
+          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,61 +1437,61 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>11-30 07:26</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1251735335.html</t>
+          <t>/news,601127,1252773755.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
+          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>11-29 07:31</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1251591199.html</t>
+          <t>/news,601127,1252209303.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>16653</t>
+          <t>4933</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
+          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,61 +1501,61 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-26 11:32</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1251451471.html</t>
+          <t>/news,601127,1251735335.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
+          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-26 07:27</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1251430125.html</t>
+          <t>/news,601127,1251591199.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>16671</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
+          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>11-26 11:32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1250942863.html</t>
+          <t>/news,601127,1251451471.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4304</t>
+          <t>999</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
+          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,61 +1597,61 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 19:17</t>
+          <t>11-26 07:27</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1250790676.html</t>
+          <t>/news,601127,1251430125.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
+          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 17:43</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1250771693.html</t>
+          <t>/news,601127,1250942863.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
+          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,93 +1661,93 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-24 07:26</t>
+          <t>11-24 19:17</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1250415350.html</t>
+          <t>/news,601127,1250790676.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>962</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
+          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 07:28</t>
+          <t>11-24 17:43</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1249871596.html</t>
+          <t>/news,601127,1250771693.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2687</t>
+          <t>654</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-23 07:20</t>
+          <t>11-24 07:26</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1249870614.html</t>
+          <t>/news,601127,1250415350.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
+          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,61 +1757,61 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 07:32</t>
+          <t>11-23 07:28</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1249345018.html</t>
+          <t>/news,601127,1249871596.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>2690</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
+          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-23 07:20</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1248769930.html</t>
+          <t>/news,601127,1249870614.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
+          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,61 +1821,61 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-22 07:32</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1248636214.html</t>
+          <t>/news,601127,1249345018.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5567</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
+          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-19 06:42</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1248633256.html</t>
+          <t>/news,601127,1248769930.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>986</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-18 07:35</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1248150575.html</t>
+          <t>/news,601127,1248636214.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6903</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
+          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-17 21:42</t>
+          <t>11-19 06:42</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1248096262.html</t>
+          <t>/news,601127,1248633256.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
+          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-17 08:00</t>
+          <t>11-18 07:35</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1247669522.html</t>
+          <t>/news,601127,1248150575.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
+          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-16 07:32</t>
+          <t>11-17 21:42</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1247172531.html</t>
+          <t>/news,601127,1248096262.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,51 +2077,51 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,61 +2269,61 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2752</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,61 +2365,61 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>2757</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1521</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1642</t>
+          <t>1706</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>1644</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>3135</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,51 +2685,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,103 +2739,103 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1493</t>
+          <t>689</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2339</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>1495</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>2340</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2260</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1274</t>
+          <t>913</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>2261</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.31亿元，两市排名第十（10-28）</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-29 07:31</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1240597132.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>销量大增但尚无规模效应 赛力斯三季度净亏逾9亿元</t>
+          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 22:31</t>
+          <t>10-29 09:42</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1240561459.html</t>
+          <t>/news,601127,1240609106.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还1203.84万元，居汽车整车板块第九</t>
+          <t>赛力斯：融资净偿还834.61万元，融资余额14.96亿元（12-12）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-11 15:06</t>
+          <t>12-13 07:32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1258088644.html</t>
+          <t>/news,601127,1258758401.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入514.1万元，融资余额15.05亿元（12-09）</t>
+          <t>赛力斯本周融资净偿还1203.84万元，居汽车整车板块第九</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-10 07:30</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1257961782.html</t>
+          <t>/news,601127,1258088644.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入89.06万元，融资余额15亿元（12-08）</t>
+          <t>赛力斯：融资净买入514.1万元，融资余额15.05亿元（12-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-09 07:29</t>
+          <t>12-10 07:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1257389132.html</t>
+          <t>/news,601127,1257961782.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2828.15万元，融资余额14.99亿元（12-07）</t>
+          <t>赛力斯：融资净买入89.06万元，融资余额15亿元（12-08）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-08 07:34</t>
+          <t>12-09 07:29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1256752592.html</t>
+          <t>/news,601127,1257389132.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4326</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：小康控股及其一致行动人持有公司股份累计质押数量约为2.3亿股</t>
+          <t>赛力斯：融资净偿还2828.15万元，融资余额14.99亿元（12-07）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 17:56</t>
+          <t>12-08 07:34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1256552126.html</t>
+          <t>/news,601127,1256752592.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>4371</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还981.17万元，融资余额15.27亿元（12-06）</t>
+          <t>赛力斯：小康控股及其一致行动人持有公司股份累计质押数量约为2.3亿股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 07:25</t>
+          <t>12-07 17:56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1256086953.html</t>
+          <t>/news,601127,1256552126.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
+          <t>赛力斯：融资净偿还981.17万元，融资余额15.27亿元（12-06）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 07:34</t>
+          <t>12-07 07:25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1255445240.html</t>
+          <t>/news,601127,1256086953.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
+          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1254650956.html</t>
+          <t>/news,601127,1255445240.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
+          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-03 07:36</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1254510172.html</t>
+          <t>/news,601127,1254650956.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4202</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
+          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 22:10</t>
+          <t>12-03 07:36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1254417665.html</t>
+          <t>/news,601127,1254510172.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6863</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
+          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 21:56</t>
+          <t>12-02 22:10</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1254411854.html</t>
+          <t>/news,601127,1254417665.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2533</t>
+          <t>6878</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯首次回购股份61.50万股</t>
+          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 21:15</t>
+          <t>12-02 21:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1254397104.html</t>
+          <t>/news,601127,1254411854.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2048</t>
+          <t>2544</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
+          <t>赛力斯首次回购股份61.50万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,93 +861,93 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 20:57</t>
+          <t>12-02 21:15</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1254392043.html</t>
+          <t>/news,601127,1254397104.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>2068</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
+          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 20:32</t>
+          <t>12-02 20:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1254381271.html</t>
+          <t>/news,601127,1254392043.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯首次回购61.5万股公司股份</t>
+          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 19:32</t>
+          <t>12-02 20:32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1254361363.html</t>
+          <t>/news,601127,1254381271.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1894</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯：首次回购约62万股</t>
+          <t>赛力斯首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-02 17:22</t>
+          <t>12-02 19:32</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1254321771.html</t>
+          <t>/news,601127,1254361363.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2169</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
+          <t>赛力斯：首次回购约62万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 17:19</t>
+          <t>12-02 17:22</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1254321017.html</t>
+          <t>/news,601127,1254321771.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3125</t>
+          <t>2169</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
+          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-02 16:23</t>
+          <t>12-02 17:19</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1254305273.html</t>
+          <t>/news,601127,1254321017.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5663</t>
+          <t>3139</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
+          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 09:38</t>
+          <t>12-02 16:23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1253959721.html</t>
+          <t>/news,601127,1254305273.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
+          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-02 07:30</t>
+          <t>12-02 09:38</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1253910048.html</t>
+          <t>/news,601127,1253959721.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2827</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AITO问界11月交付首次环比下降 赛力斯称受供应链紧张等多重影响</t>
+          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 23:46</t>
+          <t>12-02 07:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1253868102.html</t>
+          <t>/news,601127,1253910048.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2836</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
+          <t>AITO问界11月交付首次环比下降 赛力斯称受供应链紧张等多重影响</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 22:11</t>
+          <t>12-01 23:46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1253841897.html</t>
+          <t>/news,601127,1253868102.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2959</t>
+          <t>2443</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
+          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 20:40</t>
+          <t>12-01 22:11</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1253811946.html</t>
+          <t>/news,601127,1253841897.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>67673</t>
+          <t>2961</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
+          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 20:24</t>
+          <t>12-01 20:40</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1253805781.html</t>
+          <t>/news,601127,1253811946.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3280</t>
+          <t>67697</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
+          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-01 20:10</t>
+          <t>12-01 20:24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1253800289.html</t>
+          <t>/news,601127,1253805781.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2297</t>
+          <t>3280</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
+          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-01 19:06</t>
+          <t>12-01 20:10</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1253775624.html</t>
+          <t>/news,601127,1253800289.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2842</t>
+          <t>2297</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
+          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-01 17:30</t>
+          <t>12-01 19:06</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1253749411.html</t>
+          <t>/news,601127,1253775624.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3531</t>
+          <t>2842</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
+          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-01 17:27</t>
+          <t>12-01 17:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1253747836.html</t>
+          <t>/news,601127,1253749411.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7416</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-01 17:21</t>
+          <t>12-01 17:27</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1253746349.html</t>
+          <t>/news,601127,1253747836.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>7420</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-01 07:26</t>
+          <t>12-01 17:21</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1253297325.html</t>
+          <t>/news,601127,1253746349.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
+          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-30 07:26</t>
+          <t>12-01 07:26</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1252773755.html</t>
+          <t>/news,601127,1253297325.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
+          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-29 07:31</t>
+          <t>11-30 07:26</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1252209303.html</t>
+          <t>/news,601127,1252773755.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4933</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
+          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,93 +1501,93 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>11-29 07:31</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1251735335.html</t>
+          <t>/news,601127,1252209303.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>4936</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
+          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1251591199.html</t>
+          <t>/news,601127,1251735335.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>16671</t>
+          <t>707</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
+          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-26 11:32</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1251451471.html</t>
+          <t>/news,601127,1251591199.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>16681</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
+          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-26 07:27</t>
+          <t>11-26 11:32</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1251430125.html</t>
+          <t>/news,601127,1251451471.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
+          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>11-26 07:27</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1250942863.html</t>
+          <t>/news,601127,1251430125.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4309</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
+          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,93 +1661,93 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-24 19:17</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1250790676.html</t>
+          <t>/news,601127,1250942863.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
+          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-24 17:43</t>
+          <t>11-24 19:17</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1250771693.html</t>
+          <t>/news,601127,1250790676.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>962</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
+          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-24 07:26</t>
+          <t>11-24 17:43</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1250415350.html</t>
+          <t>/news,601127,1250771693.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>654</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,83 +1757,83 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-23 07:28</t>
+          <t>11-24 07:26</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1249871596.html</t>
+          <t>/news,601127,1250415350.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
+          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-23 07:20</t>
+          <t>11-23 07:28</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1249870614.html</t>
+          <t>/news,601127,1249871596.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>2692</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
+          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 07:32</t>
+          <t>11-23 07:20</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1249345018.html</t>
+          <t>/news,601127,1249870614.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,71 +1843,71 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
+          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 07:32</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1248769930.html</t>
+          <t>/news,601127,1249345018.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
+          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1248636214.html</t>
+          <t>/news,601127,1248769930.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>986</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-19 06:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1248633256.html</t>
+          <t>/news,601127,1248636214.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>5575</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
+          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-18 07:35</t>
+          <t>11-19 06:42</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1248150575.html</t>
+          <t>/news,601127,1248633256.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6917</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
+          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-17 21:42</t>
+          <t>11-18 07:35</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1248096262.html</t>
+          <t>/news,601127,1248150575.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>6918</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
+          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-17 08:00</t>
+          <t>11-17 21:42</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1247669522.html</t>
+          <t>/news,601127,1248096262.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-16 07:32</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1247172531.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,93 +2269,93 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,93 +2429,93 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>2759</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>668</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1706</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>1707</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>1525</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>1644</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3135</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>3137</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,125 +2749,125 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2340</t>
+          <t>1495</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>2341</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2261</t>
+          <t>915</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1277</t>
+          <t>2261</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯前三季度实现营收231亿元 已超去年全年</t>
+          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-29 09:42</t>
+          <t>10-29 14:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1240609106.html</t>
+          <t>/news,601127,1240624541.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还834.61万元，融资余额14.96亿元（12-12）</t>
+          <t>赛力斯：融资净买入58.95万元，融资余额14.97亿元（12-13）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 07:32</t>
+          <t>12-14 07:34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1258758401.html</t>
+          <t>/news,601127,1259344100.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还1203.84万元，居汽车整车板块第九</t>
+          <t>赛力斯：融资净偿还834.61万元，融资余额14.96亿元（12-12）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-11 15:06</t>
+          <t>12-13 07:32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1258088644.html</t>
+          <t>/news,601127,1258758401.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入514.1万元，融资余额15.05亿元（12-09）</t>
+          <t>赛力斯本周融资净偿还1203.84万元，居汽车整车板块第九</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-10 07:30</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1257961782.html</t>
+          <t>/news,601127,1258088644.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入89.06万元，融资余额15亿元（12-08）</t>
+          <t>赛力斯：融资净买入514.1万元，融资余额15.05亿元（12-09）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-09 07:29</t>
+          <t>12-10 07:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1257389132.html</t>
+          <t>/news,601127,1257961782.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2828.15万元，融资余额14.99亿元（12-07）</t>
+          <t>赛力斯：融资净买入89.06万元，融资余额15亿元（12-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-08 07:34</t>
+          <t>12-09 07:29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1256752592.html</t>
+          <t>/news,601127,1257389132.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4371</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯：小康控股及其一致行动人持有公司股份累计质押数量约为2.3亿股</t>
+          <t>赛力斯：融资净偿还2828.15万元，融资余额14.99亿元（12-07）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 17:56</t>
+          <t>12-08 07:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1256552126.html</t>
+          <t>/news,601127,1256752592.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还981.17万元，融资余额15.27亿元（12-06）</t>
+          <t>赛力斯：小康控股及其一致行动人持有公司股份累计质押数量约为2.3亿股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-07 07:25</t>
+          <t>12-07 17:56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1256086953.html</t>
+          <t>/news,601127,1256552126.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
+          <t>赛力斯：融资净偿还981.17万元，融资余额15.27亿元（12-06）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,51 +701,51 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 07:34</t>
+          <t>12-07 07:25</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1255445240.html</t>
+          <t>/news,601127,1256086953.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
+          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1254650956.html</t>
+          <t>/news,601127,1255445240.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
+          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-03 07:36</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1254510172.html</t>
+          <t>/news,601127,1254650956.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4244</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
+          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 22:10</t>
+          <t>12-03 07:36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1254417665.html</t>
+          <t>/news,601127,1254510172.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6878</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
+          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 21:56</t>
+          <t>12-02 22:10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1254411854.html</t>
+          <t>/news,601127,1254417665.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2544</t>
+          <t>6892</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯首次回购股份61.50万股</t>
+          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 21:15</t>
+          <t>12-02 21:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1254397104.html</t>
+          <t>/news,601127,1254411854.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2068</t>
+          <t>2560</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
+          <t>赛力斯首次回购股份61.50万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,93 +893,93 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 20:57</t>
+          <t>12-02 21:15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1254392043.html</t>
+          <t>/news,601127,1254397104.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>2093</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
+          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 20:32</t>
+          <t>12-02 20:57</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1254381271.html</t>
+          <t>/news,601127,1254392043.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1894</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯首次回购61.5万股公司股份</t>
+          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-02 19:32</t>
+          <t>12-02 20:32</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1254361363.html</t>
+          <t>/news,601127,1254381271.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯：首次回购约62万股</t>
+          <t>赛力斯首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 17:22</t>
+          <t>12-02 19:32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1254321771.html</t>
+          <t>/news,601127,1254361363.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2169</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
+          <t>赛力斯：首次回购约62万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-02 17:19</t>
+          <t>12-02 17:22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1254321017.html</t>
+          <t>/news,601127,1254321771.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3139</t>
+          <t>2171</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
+          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 16:23</t>
+          <t>12-02 17:19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1254305273.html</t>
+          <t>/news,601127,1254321017.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
+          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-02 09:38</t>
+          <t>12-02 16:23</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1253959721.html</t>
+          <t>/news,601127,1254305273.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>5690</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
+          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-02 07:30</t>
+          <t>12-02 09:38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1253910048.html</t>
+          <t>/news,601127,1253959721.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2836</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AITO问界11月交付首次环比下降 赛力斯称受供应链紧张等多重影响</t>
+          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 23:46</t>
+          <t>12-02 07:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1253868102.html</t>
+          <t>/news,601127,1253910048.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>2848</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
+          <t>AITO问界11月交付首次环比下降 赛力斯称受供应链紧张等多重影响</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 22:11</t>
+          <t>12-01 23:46</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1253841897.html</t>
+          <t>/news,601127,1253868102.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2961</t>
+          <t>2447</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
+          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 20:40</t>
+          <t>12-01 22:11</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1253811946.html</t>
+          <t>/news,601127,1253841897.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>67697</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
+          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-01 20:24</t>
+          <t>12-01 20:40</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1253805781.html</t>
+          <t>/news,601127,1253811946.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3280</t>
+          <t>67716</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
+          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-01 20:10</t>
+          <t>12-01 20:24</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1253800289.html</t>
+          <t>/news,601127,1253805781.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2297</t>
+          <t>3280</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
+          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-01 19:06</t>
+          <t>12-01 20:10</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1253775624.html</t>
+          <t>/news,601127,1253800289.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2842</t>
+          <t>2298</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
+          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-01 17:30</t>
+          <t>12-01 19:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1253749411.html</t>
+          <t>/news,601127,1253775624.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3531</t>
+          <t>2843</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
+          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-01 17:27</t>
+          <t>12-01 17:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1253747836.html</t>
+          <t>/news,601127,1253749411.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7420</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-01 17:21</t>
+          <t>12-01 17:27</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1253746349.html</t>
+          <t>/news,601127,1253747836.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>7422</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-01 07:26</t>
+          <t>12-01 17:21</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1253297325.html</t>
+          <t>/news,601127,1253746349.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
+          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-30 07:26</t>
+          <t>12-01 07:26</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1252773755.html</t>
+          <t>/news,601127,1253297325.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
+          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-29 07:31</t>
+          <t>11-30 07:26</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1252209303.html</t>
+          <t>/news,601127,1252773755.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4936</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
+          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,93 +1533,93 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>11-29 07:31</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1251735335.html</t>
+          <t>/news,601127,1252209303.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>4937</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
+          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1251591199.html</t>
+          <t>/news,601127,1251735335.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>16681</t>
+          <t>708</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
+          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-26 11:32</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1251451471.html</t>
+          <t>/news,601127,1251591199.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>16687</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
+          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-26 07:27</t>
+          <t>11-26 11:32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1251430125.html</t>
+          <t>/news,601127,1251451471.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
+          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>11-26 07:27</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1250942863.html</t>
+          <t>/news,601127,1251430125.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4310</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
+          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,93 +1693,93 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-24 19:17</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1250790676.html</t>
+          <t>/news,601127,1250942863.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
+          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-24 17:43</t>
+          <t>11-24 19:17</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1250771693.html</t>
+          <t>/news,601127,1250790676.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>962</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
+          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-24 07:26</t>
+          <t>11-24 17:43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1250415350.html</t>
+          <t>/news,601127,1250771693.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>654</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,83 +1789,83 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-23 07:28</t>
+          <t>11-24 07:26</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1249871596.html</t>
+          <t>/news,601127,1250415350.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2692</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
+          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-23 07:20</t>
+          <t>11-23 07:28</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1249870614.html</t>
+          <t>/news,601127,1249871596.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>2694</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
+          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-22 07:32</t>
+          <t>11-23 07:20</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1249345018.html</t>
+          <t>/news,601127,1249870614.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,71 +1875,71 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
+          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 07:32</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1248769930.html</t>
+          <t>/news,601127,1249345018.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
+          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1248636214.html</t>
+          <t>/news,601127,1248769930.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5575</t>
+          <t>986</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-19 06:42</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1248633256.html</t>
+          <t>/news,601127,1248636214.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>5579</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
+          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-18 07:35</t>
+          <t>11-19 06:42</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1248150575.html</t>
+          <t>/news,601127,1248633256.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6918</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
+          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-17 21:42</t>
+          <t>11-18 07:35</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1248096262.html</t>
+          <t>/news,601127,1248150575.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>6918</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
+          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-17 08:00</t>
+          <t>11-17 21:42</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1247669522.html</t>
+          <t>/news,601127,1248096262.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-16 07:32</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1247172531.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,39 +2163,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,93 +2301,93 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2759</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,93 +2461,93 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>2760</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>670</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>1526</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3137</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>3138</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,125 +2781,125 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>10-31 17:08</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241165021.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>693</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>10-30 18:24</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1240735286.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>10-30 15:12</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1240713988.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2341</t>
+          <t>1498</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>10-29 21:28</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1240653969.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>2342</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>10-29 17:04</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1240634419.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>915</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>10-29 16:56</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1240633833.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2261</t>
+          <t>918</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯三季报出炉：营收同比大增163.39% 新能源战略稳步推进</t>
+          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-29 14:00</t>
+          <t>10-29 16:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1240624541.html</t>
+          <t>/news,601127,1240633639.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入58.95万元，融资余额14.97亿元（12-13）</t>
+          <t>赛力斯：融资净偿还812.73万元，融资余额15.12亿元（12-19）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 07:34</t>
+          <t>12-20 07:32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1259344100.html</t>
+          <t>/news,601127,1261721210.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>8090</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还834.61万元，融资余额14.96亿元（12-12）</t>
+          <t>“卖得越多 亏损越高”背后 赛力斯成本、费用激增</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 07:32</t>
+          <t>12-18 16:44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1258758401.html</t>
+          <t>/news,601127,1261099076.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还1203.84万元，居汽车整车板块第九</t>
+          <t>赛力斯本周融资净买入1524.91万元，居汽车整车板块第五</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 15:06</t>
+          <t>12-18 15:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1258088644.html</t>
+          <t>/news,601127,1261086696.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入514.1万元，融资余额15.05亿元（12-09）</t>
+          <t>赛力斯：融资净偿还2213.47万元，融资余额15.2亿元（12-16）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-10 07:30</t>
+          <t>12-17 07:32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1257961782.html</t>
+          <t>/news,601127,1260973458.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入89.06万元，融资余额15亿元（12-08）</t>
+          <t>赛力斯跌5.31% 高点下跌后海通证券率先唱多</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-09 07:29</t>
+          <t>12-16 17:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1257389132.html</t>
+          <t>/news,601127,1260839721.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2828.15万元，融资余额14.99亿元（12-07）</t>
+          <t>赛力斯：连续3日融资净买入累计4572.99万元（12-15）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-08 07:34</t>
+          <t>12-16 07:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1256752592.html</t>
+          <t>/news,601127,1260473761.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4420</t>
+          <t>9014</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯：小康控股及其一致行动人持有公司股份累计质押数量约为2.3亿股</t>
+          <t>赛力斯回应华为与奇瑞等车企开展智选车合作：公司做好我们该做的事 明年继续出新车</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-07 17:56</t>
+          <t>12-15 14:08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1256552126.html</t>
+          <t>/news,601127,1260196469.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还981.17万元，融资余额15.27亿元（12-06）</t>
+          <t>赛力斯：融资净买入33.76万元，融资余额14.97亿元（12-14）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-07 07:25</t>
+          <t>12-15 07:31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1256086953.html</t>
+          <t>/news,601127,1259929681.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
+          <t>赛力斯：融资净买入58.95万元，融资余额14.97亿元（12-13）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,93 +733,93 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-06 07:34</t>
+          <t>12-14 07:34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1255445240.html</t>
+          <t>/news,601127,1259344100.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
+          <t>赛力斯：融资净偿还834.61万元，融资余额14.96亿元（12-12）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-13 07:32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1254650956.html</t>
+          <t>/news,601127,1258758401.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
+          <t>赛力斯本周融资净偿还1203.84万元，居汽车整车板块第九</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-03 07:36</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1254510172.html</t>
+          <t>/news,601127,1258088644.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4287</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
+          <t>赛力斯：融资净买入514.1万元，融资余额15.05亿元（12-09）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 22:10</t>
+          <t>12-10 07:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1254417665.html</t>
+          <t>/news,601127,1257961782.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6892</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
+          <t>赛力斯：融资净买入89.06万元，融资余额15亿元（12-08）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 21:56</t>
+          <t>12-09 07:29</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1254411854.html</t>
+          <t>/news,601127,1257389132.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯首次回购股份61.50万股</t>
+          <t>赛力斯：融资净偿还2828.15万元，融资余额14.99亿元（12-07）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 21:15</t>
+          <t>12-08 07:34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1254397104.html</t>
+          <t>/news,601127,1256752592.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2093</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
+          <t>赛力斯：小康控股及其一致行动人持有公司股份累计质押数量约为2.3亿股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 20:57</t>
+          <t>12-07 17:56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1254392043.html</t>
+          <t>/news,601127,1256552126.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,39 +947,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
+          <t>赛力斯：融资净偿还981.17万元，融资余额15.27亿元（12-06）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-02 20:32</t>
+          <t>12-07 07:25</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1254381271.html</t>
+          <t>/news,601127,1256086953.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯首次回购61.5万股公司股份</t>
+          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,61 +989,61 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 19:32</t>
+          <t>12-06 07:34</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1254361363.html</t>
+          <t>/news,601127,1255445240.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯：首次回购约62万股</t>
+          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-02 17:22</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1254321771.html</t>
+          <t>/news,601127,1254650956.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2171</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
+          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 17:19</t>
+          <t>12-03 07:36</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1254321017.html</t>
+          <t>/news,601127,1254510172.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>4511</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
+          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-02 16:23</t>
+          <t>12-02 22:10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1254305273.html</t>
+          <t>/news,601127,1254417665.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5690</t>
+          <t>7021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
+          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-02 09:38</t>
+          <t>12-02 21:56</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1253959721.html</t>
+          <t>/news,601127,1254411854.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
+          <t>赛力斯首次回购股份61.50万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-02 07:30</t>
+          <t>12-02 21:15</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1253910048.html</t>
+          <t>/news,601127,1254397104.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2848</t>
+          <t>2194</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AITO问界11月交付首次环比下降 赛力斯称受供应链紧张等多重影响</t>
+          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,61 +1181,61 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 23:46</t>
+          <t>12-02 20:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1253868102.html</t>
+          <t>/news,601127,1254392043.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2447</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
+          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 22:11</t>
+          <t>12-02 20:32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1253841897.html</t>
+          <t>/news,601127,1254381271.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
+          <t>赛力斯首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-01 20:40</t>
+          <t>12-02 19:32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1253811946.html</t>
+          <t>/news,601127,1254361363.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>67716</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
+          <t>赛力斯：首次回购约62万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-01 20:24</t>
+          <t>12-02 17:22</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1253805781.html</t>
+          <t>/news,601127,1254321771.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3280</t>
+          <t>2193</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
+          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-01 20:10</t>
+          <t>12-02 17:19</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1253800289.html</t>
+          <t>/news,601127,1254321017.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2298</t>
+          <t>3258</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
+          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-01 19:06</t>
+          <t>12-02 16:23</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1253775624.html</t>
+          <t>/news,601127,1254305273.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>5754</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
+          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-01 17:30</t>
+          <t>12-02 09:38</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1253749411.html</t>
+          <t>/news,601127,1253959721.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3531</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
+          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-01 17:27</t>
+          <t>12-02 07:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1253747836.html</t>
+          <t>/news,601127,1253910048.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7422</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
+          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-01 17:21</t>
+          <t>12-01 22:11</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1253746349.html</t>
+          <t>/news,601127,1253841897.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>2979</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
+          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-01 07:26</t>
+          <t>12-01 20:40</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1253297325.html</t>
+          <t>/news,601127,1253811946.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>67822</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
+          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-30 07:26</t>
+          <t>12-01 20:24</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1252773755.html</t>
+          <t>/news,601127,1253805781.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
+          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-29 07:31</t>
+          <t>12-01 20:10</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1252209303.html</t>
+          <t>/news,601127,1253800289.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4937</t>
+          <t>2309</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
+          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>12-01 19:06</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1251735335.html</t>
+          <t>/news,601127,1253775624.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>2860</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
+          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>12-01 17:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1251591199.html</t>
+          <t>/news,601127,1253749411.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>16687</t>
+          <t>3539</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-26 11:32</t>
+          <t>12-01 17:27</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1251451471.html</t>
+          <t>/news,601127,1253747836.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>7431</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-26 07:27</t>
+          <t>12-01 17:21</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1251430125.html</t>
+          <t>/news,601127,1253746349.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
+          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>12-01 07:26</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1250942863.html</t>
+          <t>/news,601127,1253297325.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4311</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
+          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-24 19:17</t>
+          <t>11-30 07:26</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1250790676.html</t>
+          <t>/news,601127,1252773755.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,39 +1747,39 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
+          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-24 17:43</t>
+          <t>11-29 07:31</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1250771693.html</t>
+          <t>/news,601127,1252209303.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>4956</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
+          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,93 +1789,93 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-24 07:26</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1250415350.html</t>
+          <t>/news,601127,1251735335.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>712</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
+          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-23 07:28</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1249871596.html</t>
+          <t>/news,601127,1251591199.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2694</t>
+          <t>16746</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
+          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-23 07:20</t>
+          <t>11-26 11:32</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1249870614.html</t>
+          <t>/news,601127,1251451471.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
+          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,61 +1885,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-22 07:32</t>
+          <t>11-26 07:27</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1249345018.html</t>
+          <t>/news,601127,1251430125.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
+          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1248769930.html</t>
+          <t>/news,601127,1250942863.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
+          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-24 19:17</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1248636214.html</t>
+          <t>/news,601127,1250790676.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5579</t>
+          <t>969</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
+          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-19 06:42</t>
+          <t>11-24 17:43</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1248633256.html</t>
+          <t>/news,601127,1250771693.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>661</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-18 07:35</t>
+          <t>11-24 07:26</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1248150575.html</t>
+          <t>/news,601127,1250415350.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6918</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
+          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-17 21:42</t>
+          <t>11-23 07:28</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1248096262.html</t>
+          <t>/news,601127,1249871596.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>2714</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
+          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-17 08:00</t>
+          <t>11-23 07:20</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1247669522.html</t>
+          <t>/news,601127,1249870614.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
+          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-16 07:32</t>
+          <t>11-22 07:32</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1247172531.html</t>
+          <t>/news,601127,1249345018.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,71 +2131,71 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1248769930.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>990</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1248636214.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>5595</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-19 06:42</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1248633256.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-18 07:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1248150575.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>6941</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-17 21:42</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1248096262.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,71 +2355,71 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2760</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,51 +2493,51 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>542</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,61 +2557,61 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>822</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>2766</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,61 +2717,61 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3138</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>1711</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营收同比大增163%达107亿元 年内销售费用超30亿元</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,93 +2813,93 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-31 17:08</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1241165021.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>1530</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中金公司维持赛力斯跑赢行业评级 目标价67元</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-30 18:24</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1240735286.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>1648</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.08亿元，两市排名第20</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-30 15:12</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1240713988.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯第三季度营业收入107亿元 同比大增163%</t>
+          <t>赛力斯汽车10月销量同比增长461.37%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-29 21:28</t>
+          <t>11-01 16:19</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1240653969.html</t>
+          <t>/news,601127,1241642443.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2342</t>
+          <t>1214</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯三季度净亏超9亿元：明年将实现盈利？</t>
+          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-29 17:04</t>
+          <t>11-01 15:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1240634419.html</t>
+          <t>/news,601127,1241633959.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>3145</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>【图解季报】赛力斯：2022年前三季度归母净利润为-26.7亿元，亏损同比扩大</t>
+          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-29 16:56</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1240633833.html</t>
+          <t>/news,601127,1241629767.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>销售费用创历史同期新高 赛力斯前三季度净利润亏损26.75亿元</t>
+          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-29 16:30</t>
+          <t>11-01 07:32</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1240633639.html</t>
+          <t>/news,601127,1241293826.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601127.xlsx
+++ b/news_ann/news/tmp/601127.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>95</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还812.73万元，融资余额15.12亿元（12-19）</t>
+          <t>赛力斯：融资净偿还1867.11万元，融资余额14.8亿元（12-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-20 07:32</t>
+          <t>12-23 07:23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601127,1261721210.html</t>
+          <t>/news,601127,1263186276.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8090</t>
+          <t>4066</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>“卖得越多 亏损越高”背后 赛力斯成本、费用激增</t>
+          <t>大宗交易：机构账户买入赛力斯1.08亿元（12-22）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,51 +509,51 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-18 16:44</t>
+          <t>12-22 17:13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601127,1261099076.html</t>
+          <t>/news,601127,1263033862.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入1524.91万元，居汽车整车板块第五</t>
+          <t>赛力斯：融资净偿还2181.22万元，融资余额14.98亿元（12-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-18 15:06</t>
+          <t>12-22 07:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601127,1261086696.html</t>
+          <t>/news,601127,1262667723.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2213.47万元，融资余额15.2亿元（12-16）</t>
+          <t>赛力斯：融资净买入802.86万元，融资余额15.2亿元（12-20）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-17 07:32</t>
+          <t>12-21 07:24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601127,1260973458.html</t>
+          <t>/news,601127,1262193557.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4098</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>赛力斯跌5.31% 高点下跌后海通证券率先唱多</t>
+          <t>赛力斯：融资净偿还812.73万元，融资余额15.12亿元（12-19）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-16 17:45</t>
+          <t>12-20 07:32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601127,1260839721.html</t>
+          <t>/news,601127,1261721210.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>8703</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净买入累计4572.99万元（12-15）</t>
+          <t>“卖得越多 亏损越高”背后 赛力斯成本、费用激增</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,51 +637,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-16 07:30</t>
+          <t>12-18 16:44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601127,1260473761.html</t>
+          <t>/news,601127,1261099076.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9014</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>赛力斯回应华为与奇瑞等车企开展智选车合作：公司做好我们该做的事 明年继续出新车</t>
+          <t>赛力斯本周融资净买入1524.91万元，居汽车整车板块第五</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-15 14:08</t>
+          <t>12-18 15:06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601127,1260196469.html</t>
+          <t>/news,601127,1261086696.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入33.76万元，融资余额14.97亿元（12-14）</t>
+          <t>赛力斯：融资净偿还2213.47万元，融资余额15.2亿元（12-16）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-15 07:31</t>
+          <t>12-17 07:32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601127,1259929681.html</t>
+          <t>/news,601127,1260973458.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入58.95万元，融资余额14.97亿元（12-13）</t>
+          <t>赛力斯跌5.31% 高点下跌后海通证券率先唱多</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-14 07:34</t>
+          <t>12-16 17:45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601127,1259344100.html</t>
+          <t>/news,601127,1260839721.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还834.61万元，融资余额14.96亿元（12-12）</t>
+          <t>赛力斯：连续3日融资净买入累计4572.99万元（12-15）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,51 +765,51 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-13 07:32</t>
+          <t>12-16 07:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601127,1258758401.html</t>
+          <t>/news,601127,1260473761.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>9191</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还1203.84万元，居汽车整车板块第九</t>
+          <t>赛力斯回应华为与奇瑞等车企开展智选车合作：公司做好我们该做的事 明年继续出新车</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-11 15:06</t>
+          <t>12-15 14:08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601127,1258088644.html</t>
+          <t>/news,601127,1260196469.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入514.1万元，融资余额15.05亿元（12-09）</t>
+          <t>赛力斯：融资净买入33.76万元，融资余额14.97亿元（12-14）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-10 07:30</t>
+          <t>12-15 07:31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601127,1257961782.html</t>
+          <t>/news,601127,1259929681.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入89.06万元，融资余额15亿元（12-08）</t>
+          <t>赛力斯：融资净买入58.95万元，融资余额14.97亿元（12-13）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-09 07:29</t>
+          <t>12-14 07:34</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601127,1257389132.html</t>
+          <t>/news,601127,1259344100.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2828.15万元，融资余额14.99亿元（12-07）</t>
+          <t>赛力斯：融资净偿还834.61万元，融资余额14.96亿元（12-12）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,51 +893,51 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-08 07:34</t>
+          <t>12-13 07:32</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601127,1256752592.html</t>
+          <t>/news,601127,1258758401.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4634</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赛力斯：小康控股及其一致行动人持有公司股份累计质押数量约为2.3亿股</t>
+          <t>赛力斯本周融资净偿还1203.84万元，居汽车整车板块第九</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-07 17:56</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601127,1256552126.html</t>
+          <t>/news,601127,1258088644.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还981.17万元，融资余额15.27亿元（12-06）</t>
+          <t>赛力斯：融资净买入514.1万元，融资余额15.05亿元（12-09）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-07 07:25</t>
+          <t>12-10 07:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601127,1256086953.html</t>
+          <t>/news,601127,1257961782.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
+          <t>赛力斯：融资净买入89.06万元，融资余额15亿元（12-08）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-06 07:34</t>
+          <t>12-09 07:29</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601127,1255445240.html</t>
+          <t>/news,601127,1257389132.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,39 +1011,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
+          <t>赛力斯：融资净偿还2828.15万元，融资余额14.99亿元（12-07）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-08 07:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601127,1254650956.html</t>
+          <t>/news,601127,1256752592.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
+          <t>赛力斯：小康控股及其一致行动人持有公司股份累计质押数量约为2.3亿股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-03 07:36</t>
+          <t>12-07 17:56</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601127,1254510172.html</t>
+          <t>/news,601127,1256552126.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4511</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
+          <t>赛力斯：融资净偿还981.17万元，融资余额15.27亿元（12-06）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-02 22:10</t>
+          <t>12-07 07:25</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601127,1254417665.html</t>
+          <t>/news,601127,1256086953.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7021</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
+          <t>赛力斯：融资净买入2002.32万元，融资余额15.37亿元（12-05）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,61 +1117,61 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-02 21:56</t>
+          <t>12-06 07:34</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601127,1254411854.html</t>
+          <t>/news,601127,1255445240.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赛力斯首次回购股份61.50万股</t>
+          <t>赛力斯本周融资净买入3602.05万元，居汽车整车板块第三</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-02 21:15</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601127,1254397104.html</t>
+          <t>/news,601127,1254650956.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2194</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
+          <t>赛力斯：融资净偿还3484.43万元，融资余额15.17亿元（12-02）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,61 +1181,61 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-02 20:57</t>
+          <t>12-03 07:36</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601127,1254392043.html</t>
+          <t>/news,601127,1254510172.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>4584</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
+          <t>赛力斯：2871.87万元首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-02 20:32</t>
+          <t>12-02 22:10</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601127,1254381271.html</t>
+          <t>/news,601127,1254417665.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>7047</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>赛力斯首次回购61.5万股公司股份</t>
+          <t>赛力斯首次回购公司股份 彰显未来发展信心</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-02 19:32</t>
+          <t>12-02 21:56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601127,1254361363.html</t>
+          <t>/news,601127,1254411854.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>2644</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>赛力斯：首次回购约62万股</t>
+          <t>赛力斯首次回购股份61.50万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-02 17:22</t>
+          <t>12-02 21:15</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601127,1254321771.html</t>
+          <t>/news,601127,1254397104.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2193</t>
+          <t>2226</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
+          <t>赛力斯宣布首次回购股份 新能源汽车1-11月销量同比增长235.54%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,61 +1309,61 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-02 17:19</t>
+          <t>12-02 20:57</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601127,1254321017.html</t>
+          <t>/news,601127,1254392043.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3258</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
+          <t>东吴证券首次给予赛力斯买入评级 预计2022年净利润同比减少98.53%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-02 16:23</t>
+          <t>12-02 20:32</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601127,1254305273.html</t>
+          <t>/news,601127,1254381271.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5754</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
+          <t>赛力斯首次回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-02 09:38</t>
+          <t>12-02 19:32</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601127,1253959721.html</t>
+          <t>/news,601127,1254361363.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>2047</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
+          <t>赛力斯：首次回购约62万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-02 07:30</t>
+          <t>12-02 17:22</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601127,1253910048.html</t>
+          <t>/news,601127,1254321771.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2200</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
+          <t>赛力斯：今日以2871.87万元回购61.5万股公司股份</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-01 22:11</t>
+          <t>12-02 17:19</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601127,1253841897.html</t>
+          <t>/news,601127,1254321017.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2979</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
+          <t>赛力斯：问界销量不佳是疫情原因所致 补贴退坡对公司影响不大</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-01 20:40</t>
+          <t>12-02 16:23</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601127,1253811946.html</t>
+          <t>/news,601127,1254305273.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>67822</t>
+          <t>5771</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
+          <t>赛力斯汽车前11月交付近7万辆 美国工厂出售款项已收讫</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-01 20:24</t>
+          <t>12-02 09:38</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601127,1253805781.html</t>
+          <t>/news,601127,1253959721.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3289</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
+          <t>赛力斯：连续3日融资净买入累计7980.81万元（12-01）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-01 20:10</t>
+          <t>12-02 07:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601127,1253800289.html</t>
+          <t>/news,601127,1253910048.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2309</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
+          <t>赛力斯11月产销快报：新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-01 19:06</t>
+          <t>12-01 22:11</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601127,1253775624.html</t>
+          <t>/news,601127,1253841897.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2860</t>
+          <t>2985</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
+          <t>赛力斯汽车11月份销量同比增长335.07% 全年已累计销售69884辆</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-01 17:30</t>
+          <t>12-01 20:40</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601127,1253749411.html</t>
+          <t>/news,601127,1253811946.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3539</t>
+          <t>67863</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
+          <t>造车新势力11月成绩单出炉：赛力斯销量同比增长335% 蔚来、理想交付创新高</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-01 17:27</t>
+          <t>12-01 20:24</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601127,1253747836.html</t>
+          <t>/news,601127,1253805781.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7431</t>
+          <t>3292</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
+          <t>赛力斯：11月新能源汽车销量同比增长154%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12-01 17:21</t>
+          <t>12-01 20:10</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601127,1253746349.html</t>
+          <t>/news,601127,1253800289.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>2314</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
+          <t>赛力斯汽车11月销量同比增长335.07% 全年已累计交付69884辆</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12-01 07:26</t>
+          <t>12-01 19:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601127,1253297325.html</t>
+          <t>/news,601127,1253775624.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
+          <t>赛力斯：11月赛力斯汽车销量同比增长335.07%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-30 07:26</t>
+          <t>12-01 17:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601127,1252773755.html</t>
+          <t>/news,601127,1253749411.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>3543</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335.07%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-29 07:31</t>
+          <t>12-01 17:27</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601127,1252209303.html</t>
+          <t>/news,601127,1253747836.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>7438</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
+          <t>赛力斯：11月赛力斯汽车销量8262辆 同比增长335%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>12-01 17:21</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601127,1251735335.html</t>
+          <t>/news,601127,1253746349.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
+          <t>赛力斯：融资净买入4376.75万元，融资余额15.25亿元（11-30）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-27 15:10</t>
+          <t>12-01 07:26</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601127,1251591199.html</t>
+          <t>/news,601127,1253297325.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16746</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
+          <t>赛力斯：融资净买入908.46万元，融资余额14.81亿元（11-29）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-26 11:32</t>
+          <t>11-30 07:26</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601127,1251451471.html</t>
+          <t>/news,601127,1252773755.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
+          <t>赛力斯：连续4日融资净偿还累计4.49亿元（11-28）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-26 07:27</t>
+          <t>11-29 07:31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601127,1251430125.html</t>
+          <t>/news,601127,1252209303.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>4963</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
+          <t>赛力斯：全公司正在组织各项资源协调供应链，高质量完成交付</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,93 +1917,93 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-25 07:48</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601127,1250942863.html</t>
+          <t>/news,601127,1251735335.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4332</t>
+          <t>715</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
+          <t>赛力斯本周融资净偿还4.83亿元，两市排名第一</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-24 19:17</t>
+          <t>11-27 15:10</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601127,1250790676.html</t>
+          <t>/news,601127,1251591199.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>16757</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
+          <t>12家上市车企年度目标完成率分化严重 赛力斯提前两月达标、“蔚小理”KPI不及一半</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-24 17:43</t>
+          <t>11-26 11:32</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601127,1250771693.html</t>
+          <t>/news,601127,1251451471.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
+          <t>赛力斯：融资净偿还1.55亿元，两市排名第三（11-25）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-24 07:26</t>
+          <t>11-26 07:27</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601127,1250415350.html</t>
+          <t>/news,601127,1251430125.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
+          <t>赛力斯：融资净偿还1.23亿元，两市排名第二（11-24）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,125 +2045,125 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-23 07:28</t>
+          <t>11-25 07:48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601127,1249871596.html</t>
+          <t>/news,601127,1250942863.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2714</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
+          <t>第六批智能制造标杆企业榜单公布 赛力斯等11家企业入选</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-23 07:20</t>
+          <t>11-24 19:17</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601127,1249870614.html</t>
+          <t>/news,601127,1250790676.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>979</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
+          <t>中信证券给予赛力斯OVERWEIGHT评级 目标价62元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-22 07:32</t>
+          <t>11-24 17:43</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601127,1249345018.html</t>
+          <t>/news,601127,1250771693.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>663</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-23）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-24 07:26</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601127,1248769930.html</t>
+          <t>/news,601127,1250415350.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
+          <t>赛力斯：融资净买入47.87万元，融资余额19.21亿元（11-22）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-19 07:35</t>
+          <t>11-23 07:28</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601127,1248636214.html</t>
+          <t>/news,601127,1249871596.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5595</t>
+          <t>2719</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
+          <t>中信证券首次给予赛力斯增持评级 目标价62元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-19 06:42</t>
+          <t>11-23 07:20</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601127,1248633256.html</t>
+          <t>/news,601127,1249870614.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
+          <t>赛力斯：融资净偿还4403.87万元，两市排名第七（11-21）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-18 07:35</t>
+          <t>11-22 07:32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601127,1248150575.html</t>
+          <t>/news,601127,1249345018.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6941</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
+          <t>赛力斯本周融资净偿还2.28亿元，两市排名第九</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-17 21:42</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601127,1248096262.html</t>
+          <t>/news,601127,1248769930.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>992</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
+          <t>赛力斯：融资净偿还1.62亿元，两市排名第二（11-18）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-17 08:00</t>
+          <t>11-19 07:35</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601127,1247669522.html</t>
+          <t>/news,601127,1248636214.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>5595</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
+          <t>赛力斯回复增收不增利问题 沪市新能源车产业链公司详解三季报</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-16 07:32</t>
+          <t>11-19 06:42</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601127,1247172531.html</t>
+          <t>/news,601127,1248633256.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
+          <t>赛力斯：融资净偿还7719.84万元，两市排名第八（11-17）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-15 07:28</t>
+          <t>11-18 07:35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601127,1246686650.html</t>
+          <t>/news,601127,1248150575.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>6949</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
+          <t>赛力斯：将与华为合作推出更多智慧汽车产品</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-17 21:42</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601127,1246100894.html</t>
+          <t>/news,601127,1248096262.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
+          <t>赛力斯：融资净买入258.82万元，融资余额22.03亿元（11-16）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-12 07:29</t>
+          <t>11-17 08:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601127,1245983867.html</t>
+          <t>/news,601127,1247669522.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
+          <t>赛力斯：融资净买入3096.94万元，融资余额22亿元（11-15）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-11 07:33</t>
+          <t>11-16 07:32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601127,1245409293.html</t>
+          <t>/news,601127,1247172531.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
+          <t>赛力斯：融资净偿还2313.48万元，融资余额21.7亿元（11-14）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,61 +2493,61 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-10 07:29</t>
+          <t>11-15 07:28</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601127,1244887173.html</t>
+          <t>/news,601127,1246686650.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
+          <t>赛力斯本周融资净偿还5859.66万元，居汽车整车板块第二</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-09 07:50</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601127,1244428148.html</t>
+          <t>/news,601127,1246100894.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
+          <t>赛力斯：融资净买入1625.29万元，融资余额21.93亿元（11-11）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,61 +2557,61 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-08 07:32</t>
+          <t>11-12 07:29</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601127,1243971550.html</t>
+          <t>/news,601127,1245983867.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
+          <t>赛力斯：融资净偿还907.35万元，融资余额21.76亿元（11-10）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-11 07:33</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601127,1243410961.html</t>
+          <t>/news,601127,1245409293.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
+          <t>赛力斯：融资净偿还1691.2万元，融资余额21.85亿元（11-09）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-05 07:30</t>
+          <t>11-10 07:29</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601127,1243316117.html</t>
+          <t>/news,601127,1244887173.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
+          <t>赛力斯：融资净买入5053.62万元，融资余额22.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-04 07:33</t>
+          <t>11-09 07:50</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601127,1242814336.html</t>
+          <t>/news,601127,1244428148.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>542</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
+          <t>赛力斯：融资净偿还9940.02万元，两市排名第11（11-07）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,93 +2685,93 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-08 07:32</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601127,1242321885.html</t>
+          <t>/news,601127,1243971550.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2766</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
+          <t>赛力斯本周融资净买入6120.27万元，居汽车整车板块第一</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-03 06:59</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601127,1242319213.html</t>
+          <t>/news,601127,1243410961.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>824</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
+          <t>赛力斯：融资净买入1.08亿元，两市排名第11（11-04）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>赛力斯资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-02 14:33</t>
+          <t>11-05 07:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601127,1242116677.html</t>
+          <t>/news,601127,1243316117.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
+          <t>赛力斯：融资净偿还5174.5万元，两市排名第九（11-03）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-02 07:25</t>
+          <t>11-04 07:33</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601127,1241797591.html</t>
+          <t>/news,601127,1242814336.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1711</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
+          <t>赛力斯：融资净买入8069.92万元，两市排名第13（11-02）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-01 19:45</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601127,1241694955.html</t>
+          <t>/news,601127,1242321885.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>2771</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
+          <t>海通国际发布赛力斯研报 前三季度营收已超去年全年 问界10月交付量再创新高</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-01 19:39</t>
+          <t>11-03 06:59</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601127,1241693098.html</t>
+          <t>/news,601127,1242319213.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>691</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
+          <t>海通国际维持赛力斯优于大市评级 目标价105.54元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>赛力斯资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-01 17:06</t>
+          <t>11-02 14:33</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601127,1241652871.html</t>
+          <t>/news,601127,1242116677.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赛力斯汽车10月销量同比增长461.37%</t>
+          <t>赛力斯：融资净偿还7150.08万元，两市排名第六（11-01）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-01 16:19</t>
+          <t>11-02 07:25</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601127,1241642443.html</t>
+          <t>/news,601127,1241797591.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>1713</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赛力斯：本年累计销量22.34万辆 同比上涨4.77%</t>
+          <t>赛力斯汽车连续三月销量破万 前10月新能源汽车累计销量大增248%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-01 15:50</t>
+          <t>11-01 19:45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601127,1241633959.html</t>
+          <t>/news,601127,1241694955.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3145</t>
+          <t>1530</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赛力斯：10月赛力斯汽车销量同比增长461%</t>
+          <t>赛力斯：赛力斯汽车10月销量同比增长461%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 19:39</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601127,1241629767.html</t>
+          <t>/news,601127,1241693098.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>赛力斯：连续3日融资净偿还累计1.53亿元（10-31）</t>
+          <t>赛力斯汽车10月销量12047辆 连续三个月销量破万</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-01 07:32</t>
+          <t>11-01 17:06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601127,1241293826.html</t>
+          <t>/news,601127,1241652871.html</t>
         </is>
       </c>
     </row>
